--- a/working_files/fields/practice_xcs.xlsx
+++ b/working_files/fields/practice_xcs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="6"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="27" r:id="rId1"/>
@@ -16,14 +16,16 @@
     <sheet name="und_only" sheetId="34" r:id="rId7"/>
     <sheet name="14E" sheetId="21" r:id="rId8"/>
     <sheet name="14P" sheetId="22" r:id="rId9"/>
-    <sheet name="18E" sheetId="17" r:id="rId10"/>
-    <sheet name="18P" sheetId="19" r:id="rId11"/>
-    <sheet name="32E" sheetId="20" r:id="rId12"/>
-    <sheet name="32P" sheetId="18" r:id="rId13"/>
-    <sheet name="raise1" sheetId="23" r:id="rId14"/>
-    <sheet name="raise2" sheetId="24" r:id="rId15"/>
-    <sheet name="raise3" sheetId="25" r:id="rId16"/>
-    <sheet name="Vertical_1_W" sheetId="33" r:id="rId17"/>
+    <sheet name="17E" sheetId="36" r:id="rId10"/>
+    <sheet name="17P" sheetId="37" r:id="rId11"/>
+    <sheet name="18E" sheetId="17" r:id="rId12"/>
+    <sheet name="18P" sheetId="19" r:id="rId13"/>
+    <sheet name="32E" sheetId="20" r:id="rId14"/>
+    <sheet name="32P" sheetId="18" r:id="rId15"/>
+    <sheet name="raise1" sheetId="23" r:id="rId16"/>
+    <sheet name="raise2" sheetId="24" r:id="rId17"/>
+    <sheet name="raise3" sheetId="25" r:id="rId18"/>
+    <sheet name="Vertical_1_W" sheetId="33" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="89">
   <si>
     <t>FIELDS Template</t>
   </si>
@@ -296,6 +298,12 @@
   </si>
   <si>
     <t>emf.fields template</t>
+  </si>
+  <si>
+    <t>Cross Section 17, Existing</t>
+  </si>
+  <si>
+    <t>Cross Section 17, Proposed</t>
   </si>
 </sst>
 </file>
@@ -955,6 +963,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1132,11 +1141,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="129367040"/>
-        <c:axId val="128464384"/>
+        <c:axId val="106208256"/>
+        <c:axId val="106219008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129367040"/>
+        <c:axId val="106208256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,15 +1166,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128464384"/>
+        <c:crossAx val="106219008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128464384"/>
+        <c:axId val="106219008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,29 +1197,621 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129367040"/>
+        <c:crossAx val="106208256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'17E'!$B$6</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Cross Section 17, Existing</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hot Wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'17E'!$D$5:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-37.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'17E'!$E$5:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ground-wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'17E'!$M$5:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-31.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'17E'!$N$5:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Right ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'17E'!$S$7:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'17E'!$R$5:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>49.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Left ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'17E'!$S$5:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'17E'!$R$5:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>49.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="55977088"/>
+        <c:axId val="55979008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="55977088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Horizontal Conductor Coordinate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55979008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="55979008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductor Height</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55977088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'17P'!$B$6</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Cross Section 17, Proposed</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hot Wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'17P'!$D$5:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-32.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-17.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-32.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'17P'!$E$5:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ground-wire Coordinates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'17P'!$M$5:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'17P'!$N$5:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>54.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Right ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'17P'!$S$7:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'17P'!$R$5:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>57.5715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Left ROW Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'17P'!$S$5:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'17P'!$R$5:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>57.5715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="80664064"/>
+        <c:axId val="80665984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80664064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Horizontal Conductor Coordinate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80665984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80665984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductor Height</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80664064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1225,6 +1827,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1450,11 +2053,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137476352"/>
-        <c:axId val="137486720"/>
+        <c:axId val="160651520"/>
+        <c:axId val="160661888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137476352"/>
+        <c:axId val="160651520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,15 +2078,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137486720"/>
+        <c:crossAx val="160661888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137486720"/>
+        <c:axId val="160661888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,29 +2109,31 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137476352"/>
+        <c:crossAx val="160651520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1543,6 +2149,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1762,11 +2369,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137821184"/>
-        <c:axId val="137839744"/>
+        <c:axId val="162843648"/>
+        <c:axId val="162854016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137821184"/>
+        <c:axId val="162843648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,15 +2394,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137839744"/>
+        <c:crossAx val="162854016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137839744"/>
+        <c:axId val="162854016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,29 +2425,31 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137821184"/>
+        <c:crossAx val="162843648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1855,6 +2465,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2134,11 +2745,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137912320"/>
-        <c:axId val="137914240"/>
+        <c:axId val="162856960"/>
+        <c:axId val="162858880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137912320"/>
+        <c:axId val="162856960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,15 +2770,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137914240"/>
+        <c:crossAx val="162858880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137914240"/>
+        <c:axId val="162858880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,29 +2801,31 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137912320"/>
+        <c:crossAx val="162856960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2227,6 +2841,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2554,11 +3169,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="138343168"/>
-        <c:axId val="138345088"/>
+        <c:axId val="168784640"/>
+        <c:axId val="168786560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138343168"/>
+        <c:axId val="168784640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,15 +3194,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138345088"/>
+        <c:crossAx val="168786560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138345088"/>
+        <c:axId val="168786560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,29 +3225,31 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138343168"/>
+        <c:crossAx val="168784640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2647,6 +3265,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2842,11 +3461,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137979392"/>
-        <c:axId val="137981312"/>
+        <c:axId val="168818176"/>
+        <c:axId val="168820096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137979392"/>
+        <c:axId val="168818176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,15 +3486,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137981312"/>
+        <c:crossAx val="168820096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137981312"/>
+        <c:axId val="168820096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,29 +3517,31 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137979392"/>
+        <c:crossAx val="168818176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2935,6 +3557,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3130,11 +3753,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="138410240"/>
-        <c:axId val="137507200"/>
+        <c:axId val="168921344"/>
+        <c:axId val="168931712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138410240"/>
+        <c:axId val="168921344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,15 +3778,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137507200"/>
+        <c:crossAx val="168931712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137507200"/>
+        <c:axId val="168931712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3185,29 +3809,31 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138410240"/>
+        <c:crossAx val="168921344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3223,6 +3849,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3418,11 +4045,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="138357760"/>
-        <c:axId val="138552448"/>
+        <c:axId val="162872320"/>
+        <c:axId val="168723584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138357760"/>
+        <c:axId val="162872320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,15 +4070,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138552448"/>
+        <c:crossAx val="168723584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138552448"/>
+        <c:axId val="168723584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,29 +4101,31 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138357760"/>
+        <c:crossAx val="162872320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3707,11 +4337,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="138723712"/>
-        <c:axId val="138725632"/>
+        <c:axId val="173556096"/>
+        <c:axId val="173558016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138723712"/>
+        <c:axId val="173556096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3736,12 +4366,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138725632"/>
+        <c:crossAx val="173558016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138725632"/>
+        <c:axId val="173558016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3767,7 +4397,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138723712"/>
+        <c:crossAx val="173556096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3781,7 +4411,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3803,6 +4433,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3986,11 +4617,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="129372544"/>
-        <c:axId val="129374464"/>
+        <c:axId val="106791296"/>
+        <c:axId val="106793216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129372544"/>
+        <c:axId val="106791296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4011,15 +4642,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129374464"/>
+        <c:crossAx val="106793216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129374464"/>
+        <c:axId val="106793216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4041,23 +4673,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129372544"/>
+        <c:crossAx val="106791296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4079,6 +4713,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4322,11 +4957,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="130835584"/>
-        <c:axId val="130837504"/>
+        <c:axId val="106955904"/>
+        <c:axId val="106957824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130835584"/>
+        <c:axId val="106955904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,15 +4982,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130837504"/>
+        <c:crossAx val="106957824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130837504"/>
+        <c:axId val="106957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4377,23 +5013,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130835584"/>
+        <c:crossAx val="106955904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4415,6 +5053,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4658,11 +5297,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="130913792"/>
-        <c:axId val="130915712"/>
+        <c:axId val="107017728"/>
+        <c:axId val="107019648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130913792"/>
+        <c:axId val="107017728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4683,15 +5322,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130915712"/>
+        <c:crossAx val="107019648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130915712"/>
+        <c:axId val="107019648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4713,23 +5353,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130913792"/>
+        <c:crossAx val="107017728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4994,11 +5636,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="131000576"/>
-        <c:axId val="129565056"/>
+        <c:axId val="157579520"/>
+        <c:axId val="157589888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131000576"/>
+        <c:axId val="157579520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5022,12 +5664,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129565056"/>
+        <c:crossAx val="157589888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129565056"/>
+        <c:axId val="157589888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5052,7 +5694,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131000576"/>
+        <c:crossAx val="157579520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5065,7 +5707,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5324,11 +5966,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="129620992"/>
-        <c:axId val="129627264"/>
+        <c:axId val="157707264"/>
+        <c:axId val="157713536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129620992"/>
+        <c:axId val="157707264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5352,12 +5994,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129627264"/>
+        <c:crossAx val="157713536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129627264"/>
+        <c:axId val="157713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5382,7 +6024,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129620992"/>
+        <c:crossAx val="157707264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5395,7 +6037,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5607,11 +6249,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137581312"/>
-        <c:axId val="137583232"/>
+        <c:axId val="157745920"/>
+        <c:axId val="157747840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137581312"/>
+        <c:axId val="157745920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5636,12 +6278,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137583232"/>
+        <c:crossAx val="157747840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137583232"/>
+        <c:axId val="157747840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5667,7 +6309,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137581312"/>
+        <c:crossAx val="157745920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5681,7 +6323,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000262" r="0.70000000000000262" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5703,6 +6345,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5940,11 +6583,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137663232"/>
-        <c:axId val="137665152"/>
+        <c:axId val="158999296"/>
+        <c:axId val="159001216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137663232"/>
+        <c:axId val="158999296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5965,15 +6608,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137665152"/>
+        <c:crossAx val="159001216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137665152"/>
+        <c:axId val="159001216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5995,23 +6639,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137663232"/>
+        <c:crossAx val="158999296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6033,6 +6679,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6270,11 +6917,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137745920"/>
-        <c:axId val="137747840"/>
+        <c:axId val="159073792"/>
+        <c:axId val="159075712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137745920"/>
+        <c:axId val="159073792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6295,15 +6942,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137747840"/>
+        <c:crossAx val="159075712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137747840"/>
+        <c:axId val="159075712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6325,23 +6973,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137745920"/>
+        <c:crossAx val="159073792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000262" r="0.70000000000000262" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6542,9 +7192,7 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6579,9 +7227,7 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6636,6 +7282,80 @@
 </file>
 
 <file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7671,6 +8391,1007 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="73" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="71" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="76" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="68" customWidth="1"/>
+    <col min="13" max="16" width="10.42578125" style="71" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="76" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+    </row>
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75">
+      <c r="A3" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="89"/>
+    </row>
+    <row r="4" spans="1:19" ht="38.25">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="79">
+        <v>17</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="71">
+        <v>-37.5</v>
+      </c>
+      <c r="E5" s="71">
+        <v>33</v>
+      </c>
+      <c r="F5" s="71">
+        <v>1</v>
+      </c>
+      <c r="G5" s="71">
+        <v>0.52</v>
+      </c>
+      <c r="H5" s="71">
+        <v>0.52</v>
+      </c>
+      <c r="I5" s="71">
+        <v>115</v>
+      </c>
+      <c r="J5" s="71">
+        <v>301</v>
+      </c>
+      <c r="K5" s="76">
+        <v>240</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="71">
+        <v>-31.25</v>
+      </c>
+      <c r="N5" s="71">
+        <v>47.5</v>
+      </c>
+      <c r="O5" s="71">
+        <v>1</v>
+      </c>
+      <c r="P5" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="76">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30">
+        <f>MAX(E5:E25,N5:N26)*1.05</f>
+        <v>49.875</v>
+      </c>
+      <c r="S5" s="30">
+        <f>B12</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="71">
+        <v>-25</v>
+      </c>
+      <c r="E6" s="71">
+        <v>33</v>
+      </c>
+      <c r="F6" s="71">
+        <v>1</v>
+      </c>
+      <c r="G6" s="71">
+        <v>0.52</v>
+      </c>
+      <c r="H6" s="71">
+        <v>0.52</v>
+      </c>
+      <c r="I6" s="71">
+        <v>115</v>
+      </c>
+      <c r="J6" s="71">
+        <v>301</v>
+      </c>
+      <c r="K6" s="76">
+        <v>0</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="71">
+        <v>-18.75</v>
+      </c>
+      <c r="N6" s="71">
+        <v>47.5</v>
+      </c>
+      <c r="O6" s="71">
+        <v>1</v>
+      </c>
+      <c r="P6" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="76">
+        <v>0</v>
+      </c>
+      <c r="R6" s="30">
+        <v>0</v>
+      </c>
+      <c r="S6" s="30">
+        <f>B12</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>60</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="70">
+        <v>-12.5</v>
+      </c>
+      <c r="E7" s="70">
+        <v>33</v>
+      </c>
+      <c r="F7" s="70">
+        <v>1</v>
+      </c>
+      <c r="G7" s="70">
+        <v>0.52</v>
+      </c>
+      <c r="H7" s="70">
+        <v>0.52</v>
+      </c>
+      <c r="I7" s="70">
+        <v>115</v>
+      </c>
+      <c r="J7" s="70">
+        <v>301</v>
+      </c>
+      <c r="K7" s="77">
+        <v>120</v>
+      </c>
+      <c r="L7" s="71"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30">
+        <f>B13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>100</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30">
+        <f>B13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="79">
+        <v>100</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="79">
+        <v>1</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="L11" s="71"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="79">
+        <v>-60</v>
+      </c>
+      <c r="L12" s="71"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="20">
+        <v>60</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="L14" s="71"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="74"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="L17" s="71"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="74"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="L20" s="71"/>
+      <c r="N20" s="62"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="74"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="77"/>
+      <c r="N22" s="62"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="N23" s="62"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="74"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="77"/>
+      <c r="N25" s="62"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="73"/>
+      <c r="N26" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A14:B15"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
+    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
+&amp;"-,Regular"&amp;K4D4D4D
+&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="73" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="71" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="76" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="68" customWidth="1"/>
+    <col min="13" max="16" width="10.42578125" style="71" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="76" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+    </row>
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75">
+      <c r="A3" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="89"/>
+    </row>
+    <row r="4" spans="1:19" ht="38.25">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="79">
+        <v>17</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="71">
+        <v>-32.58</v>
+      </c>
+      <c r="E5" s="71">
+        <v>28.5</v>
+      </c>
+      <c r="F5" s="71">
+        <v>1</v>
+      </c>
+      <c r="G5" s="71">
+        <v>1.29</v>
+      </c>
+      <c r="H5" s="71">
+        <v>1.29</v>
+      </c>
+      <c r="I5" s="71">
+        <v>115</v>
+      </c>
+      <c r="J5" s="71">
+        <v>301</v>
+      </c>
+      <c r="K5" s="76">
+        <v>240</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="71">
+        <v>-25</v>
+      </c>
+      <c r="N5" s="71">
+        <v>54.83</v>
+      </c>
+      <c r="O5" s="71">
+        <v>1</v>
+      </c>
+      <c r="P5" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="76">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30">
+        <f>MAX(E5:E25,N5:N26)*1.05</f>
+        <v>57.5715</v>
+      </c>
+      <c r="S5" s="30">
+        <f>B12</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="71">
+        <v>-17.41</v>
+      </c>
+      <c r="E6" s="71">
+        <v>34.5</v>
+      </c>
+      <c r="F6" s="71">
+        <v>1</v>
+      </c>
+      <c r="G6" s="71">
+        <v>1.29</v>
+      </c>
+      <c r="H6" s="71">
+        <v>1.29</v>
+      </c>
+      <c r="I6" s="71">
+        <v>115</v>
+      </c>
+      <c r="J6" s="71">
+        <v>301</v>
+      </c>
+      <c r="K6" s="76">
+        <v>0</v>
+      </c>
+      <c r="L6" s="71"/>
+      <c r="R6" s="30">
+        <v>0</v>
+      </c>
+      <c r="S6" s="30">
+        <f>B12</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>60</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="70">
+        <v>-32.58</v>
+      </c>
+      <c r="E7" s="70">
+        <v>40.5</v>
+      </c>
+      <c r="F7" s="70">
+        <v>1</v>
+      </c>
+      <c r="G7" s="70">
+        <v>1.29</v>
+      </c>
+      <c r="H7" s="70">
+        <v>1.29</v>
+      </c>
+      <c r="I7" s="70">
+        <v>115</v>
+      </c>
+      <c r="J7" s="70">
+        <v>301</v>
+      </c>
+      <c r="K7" s="77">
+        <v>120</v>
+      </c>
+      <c r="L7" s="71"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30">
+        <f>B13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>100</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30">
+        <f>B13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="79">
+        <v>100</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="79">
+        <v>1</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="L11" s="71"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="79">
+        <v>-60</v>
+      </c>
+      <c r="L12" s="71"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="20">
+        <v>60</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="L14" s="71"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="74"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="L17" s="71"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="74"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="L20" s="71"/>
+      <c r="N20" s="62"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="74"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="77"/>
+      <c r="N22" s="62"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="N23" s="62"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="74"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="77"/>
+      <c r="N25" s="62"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="73"/>
+      <c r="N26" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A14:B15"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
+    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
+&amp;"-,Regular"&amp;K4D4D4D
+&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -8243,1376 +9964,6 @@
       <c r="K26" s="32"/>
       <c r="L26" s="11"/>
       <c r="N26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A14:B15"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
-    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
-&amp;"-,Regular"&amp;K4D4D4D
-&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="35.85546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="44" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="42" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="47" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="39" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="42" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" style="71" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="76" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-    </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="89"/>
-    </row>
-    <row r="4" spans="1:19" ht="38.25">
-      <c r="A4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="17">
-        <v>18</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="50">
-        <v>-32.58</v>
-      </c>
-      <c r="E5" s="50">
-        <v>28.5</v>
-      </c>
-      <c r="F5" s="50">
-        <v>1</v>
-      </c>
-      <c r="G5" s="50">
-        <v>1.29</v>
-      </c>
-      <c r="H5" s="50">
-        <v>1.29</v>
-      </c>
-      <c r="I5" s="50">
-        <v>115</v>
-      </c>
-      <c r="J5" s="50">
-        <v>301</v>
-      </c>
-      <c r="K5" s="53">
-        <v>240</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="55">
-        <v>-25</v>
-      </c>
-      <c r="N5" s="55">
-        <v>54.83</v>
-      </c>
-      <c r="O5" s="71">
-        <v>1</v>
-      </c>
-      <c r="P5" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="76">
-        <v>0</v>
-      </c>
-      <c r="R5" s="30">
-        <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>57.5715</v>
-      </c>
-      <c r="S5" s="30">
-        <f>B12</f>
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="50">
-        <v>-17.41</v>
-      </c>
-      <c r="E6" s="50">
-        <v>34.5</v>
-      </c>
-      <c r="F6" s="50">
-        <v>1</v>
-      </c>
-      <c r="G6" s="50">
-        <v>1.29</v>
-      </c>
-      <c r="H6" s="50">
-        <v>1.29</v>
-      </c>
-      <c r="I6" s="50">
-        <v>115</v>
-      </c>
-      <c r="J6" s="50">
-        <v>301</v>
-      </c>
-      <c r="K6" s="53">
-        <v>0</v>
-      </c>
-      <c r="L6" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="55">
-        <v>25</v>
-      </c>
-      <c r="N6" s="55">
-        <v>54.83</v>
-      </c>
-      <c r="O6" s="71">
-        <v>1</v>
-      </c>
-      <c r="P6" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="76">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <f>B12</f>
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18">
-        <v>60</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="49">
-        <v>-32.58</v>
-      </c>
-      <c r="E7" s="49">
-        <v>40.5</v>
-      </c>
-      <c r="F7" s="49">
-        <v>1</v>
-      </c>
-      <c r="G7" s="49">
-        <v>1.29</v>
-      </c>
-      <c r="H7" s="49">
-        <v>1.29</v>
-      </c>
-      <c r="I7" s="49">
-        <v>115</v>
-      </c>
-      <c r="J7" s="49">
-        <v>301</v>
-      </c>
-      <c r="K7" s="54">
-        <v>120</v>
-      </c>
-      <c r="L7" s="42"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30">
-        <f>B13</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="18">
-        <v>100</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="50">
-        <v>17.41</v>
-      </c>
-      <c r="E8" s="50">
-        <v>28.5</v>
-      </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50">
-        <v>1.29</v>
-      </c>
-      <c r="H8" s="50">
-        <v>1.29</v>
-      </c>
-      <c r="I8" s="50">
-        <v>115</v>
-      </c>
-      <c r="J8" s="50">
-        <v>316</v>
-      </c>
-      <c r="K8" s="53">
-        <v>120</v>
-      </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30">
-        <f>B13</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="17">
-        <v>100</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="50">
-        <v>32.58</v>
-      </c>
-      <c r="E9" s="50">
-        <v>34.5</v>
-      </c>
-      <c r="F9" s="50">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50">
-        <v>1.29</v>
-      </c>
-      <c r="H9" s="50">
-        <v>1.29</v>
-      </c>
-      <c r="I9" s="50">
-        <v>115</v>
-      </c>
-      <c r="J9" s="50">
-        <v>316</v>
-      </c>
-      <c r="K9" s="53">
-        <v>240</v>
-      </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="49">
-        <v>17.41</v>
-      </c>
-      <c r="E10" s="49">
-        <v>40.5</v>
-      </c>
-      <c r="F10" s="49">
-        <v>1</v>
-      </c>
-      <c r="G10" s="49">
-        <v>1.29</v>
-      </c>
-      <c r="H10" s="49">
-        <v>1.29</v>
-      </c>
-      <c r="I10" s="49">
-        <v>115</v>
-      </c>
-      <c r="J10" s="49">
-        <v>316</v>
-      </c>
-      <c r="K10" s="54">
-        <v>0</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18">
-        <v>3</v>
-      </c>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17">
-        <v>-60</v>
-      </c>
-      <c r="L12" s="42"/>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
-      <c r="A13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="20">
-        <v>60</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="91"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="45"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="42"/>
-    </row>
-    <row r="17" spans="3:14">
-      <c r="L17" s="42"/>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="L18" s="42"/>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="C19" s="45"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="42"/>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="L20" s="42"/>
-      <c r="N20" s="33"/>
-    </row>
-    <row r="21" spans="3:14">
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="45"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="48"/>
-      <c r="N22" s="33"/>
-    </row>
-    <row r="23" spans="3:14">
-      <c r="N23" s="33"/>
-    </row>
-    <row r="24" spans="3:14">
-      <c r="N24" s="33"/>
-    </row>
-    <row r="25" spans="3:14">
-      <c r="C25" s="45"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="48"/>
-      <c r="N25" s="33"/>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="44"/>
-      <c r="N26" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="A14:B15"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
-    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
-&amp;"-,Regular"&amp;K4D4D4D
-&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="73" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="71" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="76" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="68" customWidth="1"/>
-    <col min="13" max="16" width="10.42578125" style="71" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="76" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-    </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75">
-      <c r="A3" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="89"/>
-    </row>
-    <row r="4" spans="1:19" ht="38.25">
-      <c r="A4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="17">
-        <v>32</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="71">
-        <v>-234.5</v>
-      </c>
-      <c r="E5" s="71">
-        <v>22.33</v>
-      </c>
-      <c r="F5" s="71">
-        <v>1</v>
-      </c>
-      <c r="G5" s="71">
-        <v>1.04</v>
-      </c>
-      <c r="H5" s="71">
-        <v>1.04</v>
-      </c>
-      <c r="I5" s="71">
-        <v>345</v>
-      </c>
-      <c r="J5" s="71">
-        <v>2694</v>
-      </c>
-      <c r="K5" s="76">
-        <v>240</v>
-      </c>
-      <c r="L5" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="71">
-        <v>-222</v>
-      </c>
-      <c r="N5" s="71">
-        <v>46.66</v>
-      </c>
-      <c r="O5" s="71">
-        <v>1</v>
-      </c>
-      <c r="P5" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="76">
-        <v>0</v>
-      </c>
-      <c r="R5" s="30">
-        <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>97.902000000000001</v>
-      </c>
-      <c r="S5" s="30">
-        <f>B12</f>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="71">
-        <v>-200</v>
-      </c>
-      <c r="E6" s="71">
-        <v>22.33</v>
-      </c>
-      <c r="F6" s="71">
-        <v>1</v>
-      </c>
-      <c r="G6" s="71">
-        <v>1.04</v>
-      </c>
-      <c r="H6" s="71">
-        <v>1.04</v>
-      </c>
-      <c r="I6" s="71">
-        <v>345</v>
-      </c>
-      <c r="J6" s="71">
-        <v>2694</v>
-      </c>
-      <c r="K6" s="76">
-        <v>120</v>
-      </c>
-      <c r="L6" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="71">
-        <v>-178</v>
-      </c>
-      <c r="N6" s="71">
-        <v>46.66</v>
-      </c>
-      <c r="O6" s="71">
-        <v>1</v>
-      </c>
-      <c r="P6" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="76">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30">
-        <f>B12</f>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="18">
-        <v>60</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="70">
-        <v>-165.5</v>
-      </c>
-      <c r="E7" s="70">
-        <v>22.33</v>
-      </c>
-      <c r="F7" s="70">
-        <v>1</v>
-      </c>
-      <c r="G7" s="70">
-        <v>1.04</v>
-      </c>
-      <c r="H7" s="70">
-        <v>1.04</v>
-      </c>
-      <c r="I7" s="70">
-        <v>345</v>
-      </c>
-      <c r="J7" s="70">
-        <v>2694</v>
-      </c>
-      <c r="K7" s="77">
-        <v>0</v>
-      </c>
-      <c r="L7" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="71">
-        <v>-72</v>
-      </c>
-      <c r="N7" s="71">
-        <v>46.66</v>
-      </c>
-      <c r="O7" s="71">
-        <v>1</v>
-      </c>
-      <c r="P7" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="76">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30">
-        <f>B13</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="18">
-        <v>100</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="71">
-        <v>-84.5</v>
-      </c>
-      <c r="E8" s="71">
-        <v>22.33</v>
-      </c>
-      <c r="F8" s="71">
-        <v>1</v>
-      </c>
-      <c r="G8" s="71">
-        <v>1.04</v>
-      </c>
-      <c r="H8" s="71">
-        <v>1.04</v>
-      </c>
-      <c r="I8" s="71">
-        <v>345</v>
-      </c>
-      <c r="J8" s="71">
-        <v>2694</v>
-      </c>
-      <c r="K8" s="76">
-        <v>240</v>
-      </c>
-      <c r="L8" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="71">
-        <v>-28</v>
-      </c>
-      <c r="N8" s="71">
-        <v>46.66</v>
-      </c>
-      <c r="O8" s="71">
-        <v>1</v>
-      </c>
-      <c r="P8" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="76">
-        <v>0</v>
-      </c>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30">
-        <f>B13</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="17">
-        <v>300</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="71">
-        <v>-50</v>
-      </c>
-      <c r="E9" s="71">
-        <v>22.33</v>
-      </c>
-      <c r="F9" s="71">
-        <v>1</v>
-      </c>
-      <c r="G9" s="71">
-        <v>1.04</v>
-      </c>
-      <c r="H9" s="71">
-        <v>1.04</v>
-      </c>
-      <c r="I9" s="71">
-        <v>345</v>
-      </c>
-      <c r="J9" s="71">
-        <v>2694</v>
-      </c>
-      <c r="K9" s="76">
-        <v>120</v>
-      </c>
-      <c r="L9" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="71">
-        <v>136</v>
-      </c>
-      <c r="N9" s="71">
-        <v>93.24</v>
-      </c>
-      <c r="O9" s="71">
-        <v>1</v>
-      </c>
-      <c r="P9" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="70">
-        <v>-15.5</v>
-      </c>
-      <c r="E10" s="70">
-        <v>22.33</v>
-      </c>
-      <c r="F10" s="70">
-        <v>1</v>
-      </c>
-      <c r="G10" s="70">
-        <v>1.04</v>
-      </c>
-      <c r="H10" s="70">
-        <v>1.04</v>
-      </c>
-      <c r="I10" s="70">
-        <v>345</v>
-      </c>
-      <c r="J10" s="70">
-        <v>2694</v>
-      </c>
-      <c r="K10" s="77">
-        <v>0</v>
-      </c>
-      <c r="L10" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="71">
-        <v>164</v>
-      </c>
-      <c r="N10" s="71">
-        <v>88.58</v>
-      </c>
-      <c r="O10" s="71">
-        <v>1</v>
-      </c>
-      <c r="P10" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18">
-        <v>3</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="71">
-        <v>129</v>
-      </c>
-      <c r="E11" s="71">
-        <v>22.33</v>
-      </c>
-      <c r="F11" s="71">
-        <v>1</v>
-      </c>
-      <c r="G11" s="71">
-        <v>1.73</v>
-      </c>
-      <c r="H11" s="71">
-        <v>1.73</v>
-      </c>
-      <c r="I11" s="71">
-        <v>345</v>
-      </c>
-      <c r="J11" s="71">
-        <v>2468</v>
-      </c>
-      <c r="K11" s="76">
-        <v>0</v>
-      </c>
-      <c r="L11" s="71"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17">
-        <v>-150</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="71">
-        <v>124</v>
-      </c>
-      <c r="E12" s="71">
-        <v>45.33</v>
-      </c>
-      <c r="F12" s="71">
-        <v>1</v>
-      </c>
-      <c r="G12" s="71">
-        <v>1.73</v>
-      </c>
-      <c r="H12" s="71">
-        <v>1.73</v>
-      </c>
-      <c r="I12" s="71">
-        <v>345</v>
-      </c>
-      <c r="J12" s="71">
-        <v>2468</v>
-      </c>
-      <c r="K12" s="76">
-        <v>120</v>
-      </c>
-      <c r="L12" s="71"/>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
-      <c r="A13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="20">
-        <v>150</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="70">
-        <v>128</v>
-      </c>
-      <c r="E13" s="70">
-        <v>68.33</v>
-      </c>
-      <c r="F13" s="70">
-        <v>1</v>
-      </c>
-      <c r="G13" s="70">
-        <v>1.73</v>
-      </c>
-      <c r="H13" s="70">
-        <v>1.73</v>
-      </c>
-      <c r="I13" s="70">
-        <v>345</v>
-      </c>
-      <c r="J13" s="70">
-        <v>2468</v>
-      </c>
-      <c r="K13" s="77">
-        <v>240</v>
-      </c>
-      <c r="L13" s="71"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="71">
-        <v>171</v>
-      </c>
-      <c r="E14" s="71">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="F14" s="71">
-        <v>1</v>
-      </c>
-      <c r="G14" s="71">
-        <v>1.73</v>
-      </c>
-      <c r="H14" s="71">
-        <v>1.73</v>
-      </c>
-      <c r="I14" s="71">
-        <v>115</v>
-      </c>
-      <c r="J14" s="71">
-        <v>2468</v>
-      </c>
-      <c r="K14" s="76">
-        <v>240</v>
-      </c>
-      <c r="L14" s="71"/>
-    </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="71">
-        <v>176</v>
-      </c>
-      <c r="E15" s="71">
-        <v>40.67</v>
-      </c>
-      <c r="F15" s="71">
-        <v>1</v>
-      </c>
-      <c r="G15" s="71">
-        <v>1.73</v>
-      </c>
-      <c r="H15" s="71">
-        <v>1.73</v>
-      </c>
-      <c r="I15" s="71">
-        <v>115</v>
-      </c>
-      <c r="J15" s="71">
-        <v>2468</v>
-      </c>
-      <c r="K15" s="76">
-        <v>120</v>
-      </c>
-      <c r="L15" s="71"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="70">
-        <v>172</v>
-      </c>
-      <c r="E16" s="70">
-        <v>63.67</v>
-      </c>
-      <c r="F16" s="70">
-        <v>1</v>
-      </c>
-      <c r="G16" s="70">
-        <v>1.73</v>
-      </c>
-      <c r="H16" s="70">
-        <v>1.73</v>
-      </c>
-      <c r="I16" s="70">
-        <v>115</v>
-      </c>
-      <c r="J16" s="70">
-        <v>2468</v>
-      </c>
-      <c r="K16" s="77">
-        <v>0</v>
-      </c>
-      <c r="L16" s="71"/>
-    </row>
-    <row r="17" spans="3:14">
-      <c r="L17" s="71"/>
-    </row>
-    <row r="18" spans="3:14">
-      <c r="L18" s="71"/>
-    </row>
-    <row r="19" spans="3:14">
-      <c r="C19" s="74"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="71"/>
-    </row>
-    <row r="20" spans="3:14">
-      <c r="L20" s="71"/>
-      <c r="N20" s="62"/>
-    </row>
-    <row r="21" spans="3:14">
-      <c r="N21" s="62"/>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="N22" s="62"/>
-    </row>
-    <row r="23" spans="3:14">
-      <c r="N23" s="62"/>
-    </row>
-    <row r="24" spans="3:14">
-      <c r="N24" s="62"/>
-    </row>
-    <row r="25" spans="3:14">
-      <c r="C25" s="74"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="77"/>
-      <c r="N25" s="62"/>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="73"/>
-      <c r="N26" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9645,7 +9996,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -9797,43 +10148,43 @@
         <v>42</v>
       </c>
       <c r="B5" s="17">
-        <v>32</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="57">
-        <v>-234.5</v>
-      </c>
-      <c r="E5" s="57">
-        <v>22.33</v>
-      </c>
-      <c r="F5" s="57">
-        <v>1</v>
-      </c>
-      <c r="G5" s="57">
-        <v>1.04</v>
-      </c>
-      <c r="H5" s="57">
-        <v>1.04</v>
-      </c>
-      <c r="I5" s="57">
-        <v>345</v>
-      </c>
-      <c r="J5" s="57">
-        <v>2694</v>
-      </c>
-      <c r="K5" s="60">
+        <v>18</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="50">
+        <v>-32.58</v>
+      </c>
+      <c r="E5" s="50">
+        <v>28.5</v>
+      </c>
+      <c r="F5" s="50">
+        <v>1</v>
+      </c>
+      <c r="G5" s="50">
+        <v>1.29</v>
+      </c>
+      <c r="H5" s="50">
+        <v>1.29</v>
+      </c>
+      <c r="I5" s="50">
+        <v>115</v>
+      </c>
+      <c r="J5" s="50">
+        <v>301</v>
+      </c>
+      <c r="K5" s="53">
         <v>240</v>
       </c>
-      <c r="L5" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="71">
-        <v>-222</v>
-      </c>
-      <c r="N5" s="71">
-        <v>46.66</v>
+      <c r="L5" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="55">
+        <v>-25</v>
+      </c>
+      <c r="N5" s="55">
+        <v>54.83</v>
       </c>
       <c r="O5" s="71">
         <v>1</v>
@@ -9846,11 +10197,11 @@
       </c>
       <c r="R5" s="30">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>97.902000000000001</v>
+        <v>57.5715</v>
       </c>
       <c r="S5" s="30">
         <f>B12</f>
-        <v>-275</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9858,43 +10209,43 @@
         <v>84</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="57">
-        <v>-200</v>
-      </c>
-      <c r="E6" s="57">
-        <v>22.33</v>
-      </c>
-      <c r="F6" s="57">
-        <v>1</v>
-      </c>
-      <c r="G6" s="57">
-        <v>1.04</v>
-      </c>
-      <c r="H6" s="57">
-        <v>1.04</v>
-      </c>
-      <c r="I6" s="57">
-        <v>345</v>
-      </c>
-      <c r="J6" s="57">
-        <v>2694</v>
-      </c>
-      <c r="K6" s="60">
-        <v>120</v>
-      </c>
-      <c r="L6" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="71">
-        <v>-178</v>
-      </c>
-      <c r="N6" s="71">
-        <v>46.66</v>
+        <v>79</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="50">
+        <v>-17.41</v>
+      </c>
+      <c r="E6" s="50">
+        <v>34.5</v>
+      </c>
+      <c r="F6" s="50">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50">
+        <v>1.29</v>
+      </c>
+      <c r="H6" s="50">
+        <v>1.29</v>
+      </c>
+      <c r="I6" s="50">
+        <v>115</v>
+      </c>
+      <c r="J6" s="50">
+        <v>301</v>
+      </c>
+      <c r="K6" s="53">
+        <v>0</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="55">
+        <v>25</v>
+      </c>
+      <c r="N6" s="55">
+        <v>54.83</v>
       </c>
       <c r="O6" s="71">
         <v>1</v>
@@ -9910,7 +10261,7 @@
       </c>
       <c r="S6" s="30">
         <f>B12</f>
-        <v>-275</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -9920,55 +10271,38 @@
       <c r="B7" s="18">
         <v>60</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="56">
-        <v>-165.5</v>
-      </c>
-      <c r="E7" s="56">
-        <v>22.33</v>
-      </c>
-      <c r="F7" s="56">
-        <v>1</v>
-      </c>
-      <c r="G7" s="56">
-        <v>1.04</v>
-      </c>
-      <c r="H7" s="56">
-        <v>1.04</v>
-      </c>
-      <c r="I7" s="56">
-        <v>345</v>
-      </c>
-      <c r="J7" s="56">
-        <v>2694</v>
-      </c>
-      <c r="K7" s="61">
-        <v>0</v>
-      </c>
-      <c r="L7" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="71">
-        <v>-72</v>
-      </c>
-      <c r="N7" s="71">
-        <v>46.66</v>
-      </c>
-      <c r="O7" s="71">
-        <v>1</v>
-      </c>
-      <c r="P7" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="76">
-        <v>0</v>
-      </c>
+      <c r="C7" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="49">
+        <v>-32.58</v>
+      </c>
+      <c r="E7" s="49">
+        <v>40.5</v>
+      </c>
+      <c r="F7" s="49">
+        <v>1</v>
+      </c>
+      <c r="G7" s="49">
+        <v>1.29</v>
+      </c>
+      <c r="H7" s="49">
+        <v>1.29</v>
+      </c>
+      <c r="I7" s="49">
+        <v>115</v>
+      </c>
+      <c r="J7" s="49">
+        <v>301</v>
+      </c>
+      <c r="K7" s="54">
+        <v>120</v>
+      </c>
+      <c r="L7" s="42"/>
       <c r="R7" s="30"/>
       <c r="S7" s="30">
         <f>B13</f>
-        <v>275</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -9978,55 +10312,40 @@
       <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="57">
-        <v>-84.5</v>
-      </c>
-      <c r="E8" s="57">
-        <v>22.33</v>
-      </c>
-      <c r="F8" s="57">
-        <v>1</v>
-      </c>
-      <c r="G8" s="57">
-        <v>1.04</v>
-      </c>
-      <c r="H8" s="57">
-        <v>1.04</v>
-      </c>
-      <c r="I8" s="57">
-        <v>345</v>
-      </c>
-      <c r="J8" s="57">
-        <v>2694</v>
-      </c>
-      <c r="K8" s="60">
-        <v>240</v>
-      </c>
-      <c r="L8" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="71">
-        <v>-28</v>
-      </c>
-      <c r="N8" s="71">
-        <v>46.66</v>
-      </c>
-      <c r="O8" s="71">
-        <v>1</v>
-      </c>
-      <c r="P8" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="76">
-        <v>0</v>
-      </c>
+      <c r="C8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="50">
+        <v>17.41</v>
+      </c>
+      <c r="E8" s="50">
+        <v>28.5</v>
+      </c>
+      <c r="F8" s="50">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>1.29</v>
+      </c>
+      <c r="H8" s="50">
+        <v>1.29</v>
+      </c>
+      <c r="I8" s="50">
+        <v>115</v>
+      </c>
+      <c r="J8" s="50">
+        <v>316</v>
+      </c>
+      <c r="K8" s="53">
+        <v>120</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
       <c r="R8" s="30"/>
       <c r="S8" s="30">
         <f>B13</f>
-        <v>275</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -10034,53 +10353,38 @@
         <v>20</v>
       </c>
       <c r="B9" s="17">
-        <v>300</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="57">
-        <v>-50</v>
-      </c>
-      <c r="E9" s="57">
-        <v>22.33</v>
-      </c>
-      <c r="F9" s="57">
-        <v>1</v>
-      </c>
-      <c r="G9" s="57">
-        <v>1.04</v>
-      </c>
-      <c r="H9" s="57">
-        <v>1.04</v>
-      </c>
-      <c r="I9" s="57">
-        <v>345</v>
-      </c>
-      <c r="J9" s="57">
-        <v>2694</v>
-      </c>
-      <c r="K9" s="60">
-        <v>120</v>
-      </c>
-      <c r="L9" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="71">
-        <v>136</v>
-      </c>
-      <c r="N9" s="71">
-        <v>93.24</v>
-      </c>
-      <c r="O9" s="71">
-        <v>1</v>
-      </c>
-      <c r="P9" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="76">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="50">
+        <v>32.58</v>
+      </c>
+      <c r="E9" s="50">
+        <v>34.5</v>
+      </c>
+      <c r="F9" s="50">
+        <v>1</v>
+      </c>
+      <c r="G9" s="50">
+        <v>1.29</v>
+      </c>
+      <c r="H9" s="50">
+        <v>1.29</v>
+      </c>
+      <c r="I9" s="50">
+        <v>115</v>
+      </c>
+      <c r="J9" s="50">
+        <v>316</v>
+      </c>
+      <c r="K9" s="53">
+        <v>240</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="16" t="s">
@@ -10089,51 +10393,36 @@
       <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="56">
-        <v>-15.5</v>
-      </c>
-      <c r="E10" s="56">
-        <v>22.33</v>
-      </c>
-      <c r="F10" s="56">
-        <v>1</v>
-      </c>
-      <c r="G10" s="56">
-        <v>1.04</v>
-      </c>
-      <c r="H10" s="56">
-        <v>1.04</v>
-      </c>
-      <c r="I10" s="56">
-        <v>345</v>
-      </c>
-      <c r="J10" s="56">
-        <v>2694</v>
-      </c>
-      <c r="K10" s="61">
+      <c r="C10" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="49">
+        <v>17.41</v>
+      </c>
+      <c r="E10" s="49">
+        <v>40.5</v>
+      </c>
+      <c r="F10" s="49">
+        <v>1</v>
+      </c>
+      <c r="G10" s="49">
+        <v>1.29</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1.29</v>
+      </c>
+      <c r="I10" s="49">
+        <v>115</v>
+      </c>
+      <c r="J10" s="49">
+        <v>316</v>
+      </c>
+      <c r="K10" s="54">
         <v>0</v>
       </c>
-      <c r="L10" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="71">
-        <v>164</v>
-      </c>
-      <c r="N10" s="71">
-        <v>88.58</v>
-      </c>
-      <c r="O10" s="71">
-        <v>1</v>
-      </c>
-      <c r="P10" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="76">
-        <v>0</v>
-      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="16" t="s">
@@ -10142,139 +10431,33 @@
       <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="57">
-        <v>129</v>
-      </c>
-      <c r="E11" s="57">
-        <v>22.33</v>
-      </c>
-      <c r="F11" s="57">
-        <v>1</v>
-      </c>
-      <c r="G11" s="57">
-        <v>1.73</v>
-      </c>
-      <c r="H11" s="57">
-        <v>1.73</v>
-      </c>
-      <c r="I11" s="57">
-        <v>345</v>
-      </c>
-      <c r="J11" s="57">
-        <v>2468</v>
-      </c>
-      <c r="K11" s="60">
-        <v>0</v>
-      </c>
-      <c r="L11" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="71">
-        <v>219.66</v>
-      </c>
-      <c r="N11" s="71">
-        <v>58.42</v>
-      </c>
-      <c r="O11" s="71">
-        <v>1</v>
-      </c>
-      <c r="P11" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="76">
-        <v>0</v>
-      </c>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="17">
-        <v>-275</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="57">
-        <v>124</v>
-      </c>
-      <c r="E12" s="57">
-        <v>45.33</v>
-      </c>
-      <c r="F12" s="57">
-        <v>1</v>
-      </c>
-      <c r="G12" s="57">
-        <v>1.73</v>
-      </c>
-      <c r="H12" s="57">
-        <v>1.73</v>
-      </c>
-      <c r="I12" s="57">
-        <v>345</v>
-      </c>
-      <c r="J12" s="57">
-        <v>2468</v>
-      </c>
-      <c r="K12" s="60">
-        <v>120</v>
-      </c>
-      <c r="L12" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="71">
-        <v>230.33</v>
-      </c>
-      <c r="N12" s="71">
-        <v>58.42</v>
-      </c>
-      <c r="O12" s="71">
-        <v>1</v>
-      </c>
-      <c r="P12" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="76">
-        <v>0</v>
-      </c>
+        <v>-60</v>
+      </c>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="20">
-        <v>275</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="56">
-        <v>128</v>
-      </c>
-      <c r="E13" s="56">
-        <v>68.33</v>
-      </c>
-      <c r="F13" s="56">
-        <v>1</v>
-      </c>
-      <c r="G13" s="56">
-        <v>1.73</v>
-      </c>
-      <c r="H13" s="56">
-        <v>1.73</v>
-      </c>
-      <c r="I13" s="56">
-        <v>345</v>
-      </c>
-      <c r="J13" s="56">
-        <v>2468</v>
-      </c>
-      <c r="K13" s="61">
-        <v>240</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:19">
@@ -10282,276 +10465,60 @@
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
-      <c r="C14" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="57">
-        <v>171</v>
-      </c>
-      <c r="E14" s="57">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="F14" s="57">
-        <v>1</v>
-      </c>
-      <c r="G14" s="57">
-        <v>1.73</v>
-      </c>
-      <c r="H14" s="57">
-        <v>1.73</v>
-      </c>
-      <c r="I14" s="57">
-        <v>115</v>
-      </c>
-      <c r="J14" s="57">
-        <v>2468</v>
-      </c>
-      <c r="K14" s="60">
-        <v>240</v>
-      </c>
       <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
-      <c r="C15" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="57">
-        <v>176</v>
-      </c>
-      <c r="E15" s="57">
-        <v>40.67</v>
-      </c>
-      <c r="F15" s="57">
-        <v>1</v>
-      </c>
-      <c r="G15" s="57">
-        <v>1.73</v>
-      </c>
-      <c r="H15" s="57">
-        <v>1.73</v>
-      </c>
-      <c r="I15" s="57">
-        <v>115</v>
-      </c>
-      <c r="J15" s="57">
-        <v>2468</v>
-      </c>
-      <c r="K15" s="60">
-        <v>120</v>
-      </c>
       <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="56">
-        <v>172</v>
-      </c>
-      <c r="E16" s="56">
-        <v>63.67</v>
-      </c>
-      <c r="F16" s="56">
-        <v>1</v>
-      </c>
-      <c r="G16" s="56">
-        <v>1.73</v>
-      </c>
-      <c r="H16" s="56">
-        <v>1.73</v>
-      </c>
-      <c r="I16" s="56">
-        <v>115</v>
-      </c>
-      <c r="J16" s="56">
-        <v>2468</v>
-      </c>
-      <c r="K16" s="61">
-        <v>0</v>
-      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="42"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="57">
-        <v>217.58</v>
-      </c>
-      <c r="E17" s="57">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="F17" s="57">
-        <v>1</v>
-      </c>
-      <c r="G17" s="57">
-        <v>1.29</v>
-      </c>
-      <c r="H17" s="57">
-        <v>1.29</v>
-      </c>
-      <c r="I17" s="57">
-        <v>115</v>
-      </c>
-      <c r="J17" s="57">
-        <v>1664</v>
-      </c>
-      <c r="K17" s="60">
-        <v>0</v>
-      </c>
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="57">
-        <v>214.33</v>
-      </c>
-      <c r="E18" s="57">
-        <v>32.17</v>
-      </c>
-      <c r="F18" s="57">
-        <v>1</v>
-      </c>
-      <c r="G18" s="57">
-        <v>1.29</v>
-      </c>
-      <c r="H18" s="57">
-        <v>1.29</v>
-      </c>
-      <c r="I18" s="57">
-        <v>115</v>
-      </c>
-      <c r="J18" s="57">
-        <v>1664</v>
-      </c>
-      <c r="K18" s="60">
-        <v>240</v>
-      </c>
       <c r="L18" s="42"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="56">
-        <v>217.25</v>
-      </c>
-      <c r="E19" s="56">
-        <v>44.17</v>
-      </c>
-      <c r="F19" s="56">
-        <v>1</v>
-      </c>
-      <c r="G19" s="56">
-        <v>1.29</v>
-      </c>
-      <c r="H19" s="56">
-        <v>1.29</v>
-      </c>
-      <c r="I19" s="56">
-        <v>115</v>
-      </c>
-      <c r="J19" s="56">
-        <v>1664</v>
-      </c>
-      <c r="K19" s="61">
-        <v>120</v>
-      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="48"/>
       <c r="L19" s="42"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="57">
-        <v>232.41</v>
-      </c>
-      <c r="E20" s="57">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="F20" s="57">
-        <v>1</v>
-      </c>
-      <c r="G20" s="57">
-        <v>1.29</v>
-      </c>
-      <c r="H20" s="57">
-        <v>1.29</v>
-      </c>
-      <c r="I20" s="57">
-        <v>115</v>
-      </c>
-      <c r="J20" s="57">
-        <v>1664</v>
-      </c>
-      <c r="K20" s="60">
-        <v>120</v>
-      </c>
       <c r="L20" s="42"/>
       <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="57">
-        <v>235.66</v>
-      </c>
-      <c r="E21" s="57">
-        <v>32.17</v>
-      </c>
-      <c r="F21" s="57">
-        <v>1</v>
-      </c>
-      <c r="G21" s="57">
-        <v>1.29</v>
-      </c>
-      <c r="H21" s="57">
-        <v>1.29</v>
-      </c>
-      <c r="I21" s="57">
-        <v>115</v>
-      </c>
-      <c r="J21" s="57">
-        <v>1664</v>
-      </c>
-      <c r="K21" s="60">
-        <v>0</v>
-      </c>
       <c r="N21" s="33"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="57">
-        <v>232.75</v>
-      </c>
-      <c r="E22" s="57">
-        <v>44.17</v>
-      </c>
-      <c r="F22" s="57">
-        <v>1</v>
-      </c>
-      <c r="G22" s="57">
-        <v>1.29</v>
-      </c>
-      <c r="H22" s="57">
-        <v>1.29</v>
-      </c>
-      <c r="I22" s="57">
-        <v>115</v>
-      </c>
-      <c r="J22" s="57">
-        <v>1664</v>
-      </c>
-      <c r="K22" s="60">
-        <v>240</v>
-      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="48"/>
       <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
@@ -10616,13 +10583,13 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="64" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="73" customWidth="1"/>
     <col min="4" max="10" width="10.42578125" style="71" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" style="76" customWidth="1"/>
@@ -10766,47 +10733,47 @@
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>63</v>
+      <c r="B5" s="17">
+        <v>32</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="71">
-        <v>-10</v>
+        <v>-234.5</v>
       </c>
       <c r="E5" s="71">
-        <v>10</v>
+        <v>22.33</v>
       </c>
       <c r="F5" s="71">
         <v>1</v>
       </c>
       <c r="G5" s="71">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="H5" s="71">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="I5" s="71">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="J5" s="71">
-        <v>500</v>
+        <v>2694</v>
       </c>
       <c r="K5" s="76">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="71">
-        <v>0</v>
+        <v>-222</v>
       </c>
       <c r="N5" s="71">
-        <v>15</v>
+        <v>46.66</v>
       </c>
       <c r="O5" s="71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P5" s="71">
         <v>0</v>
@@ -10816,11 +10783,11 @@
       </c>
       <c r="R5" s="30">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>15.75</v>
+        <v>97.902000000000001</v>
       </c>
       <c r="S5" s="30">
         <f>B12</f>
-        <v>-50</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10828,42 +10795,59 @@
         <v>84</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C6" s="73" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="71">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E6" s="71">
-        <v>10</v>
+        <v>22.33</v>
       </c>
       <c r="F6" s="71">
         <v>1</v>
       </c>
       <c r="G6" s="71">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="H6" s="71">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="I6" s="71">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="J6" s="71">
-        <v>500</v>
+        <v>2694</v>
       </c>
       <c r="K6" s="76">
         <v>120</v>
       </c>
-      <c r="L6" s="71"/>
+      <c r="L6" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="71">
+        <v>-178</v>
+      </c>
+      <c r="N6" s="71">
+        <v>46.66</v>
+      </c>
+      <c r="O6" s="71">
+        <v>1</v>
+      </c>
+      <c r="P6" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="76">
+        <v>0</v>
+      </c>
       <c r="R6" s="30">
         <v>0</v>
       </c>
       <c r="S6" s="30">
         <f>B12</f>
-        <v>-50</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -10874,37 +10858,54 @@
         <v>60</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="70">
-        <v>10</v>
+        <v>-165.5</v>
       </c>
       <c r="E7" s="70">
-        <v>10</v>
+        <v>22.33</v>
       </c>
       <c r="F7" s="70">
         <v>1</v>
       </c>
       <c r="G7" s="70">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="H7" s="70">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="I7" s="70">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="J7" s="70">
-        <v>500</v>
+        <v>2694</v>
       </c>
       <c r="K7" s="77">
-        <v>240</v>
-      </c>
-      <c r="L7" s="71"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="71">
+        <v>-72</v>
+      </c>
+      <c r="N7" s="71">
+        <v>46.66</v>
+      </c>
+      <c r="O7" s="71">
+        <v>1</v>
+      </c>
+      <c r="P7" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="76">
+        <v>0</v>
+      </c>
       <c r="R7" s="30"/>
       <c r="S7" s="30">
         <f>B13</f>
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -10914,11 +10915,55 @@
       <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="L8" s="71"/>
+      <c r="C8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="71">
+        <v>-84.5</v>
+      </c>
+      <c r="E8" s="71">
+        <v>22.33</v>
+      </c>
+      <c r="F8" s="71">
+        <v>1</v>
+      </c>
+      <c r="G8" s="71">
+        <v>1.04</v>
+      </c>
+      <c r="H8" s="71">
+        <v>1.04</v>
+      </c>
+      <c r="I8" s="71">
+        <v>345</v>
+      </c>
+      <c r="J8" s="71">
+        <v>2694</v>
+      </c>
+      <c r="K8" s="76">
+        <v>240</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="71">
+        <v>-28</v>
+      </c>
+      <c r="N8" s="71">
+        <v>46.66</v>
+      </c>
+      <c r="O8" s="71">
+        <v>1</v>
+      </c>
+      <c r="P8" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="76">
+        <v>0</v>
+      </c>
       <c r="R8" s="30"/>
       <c r="S8" s="30">
         <f>B13</f>
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -10926,9 +10971,53 @@
         <v>20</v>
       </c>
       <c r="B9" s="17">
-        <v>250</v>
-      </c>
-      <c r="L9" s="71"/>
+        <v>300</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="71">
+        <v>-50</v>
+      </c>
+      <c r="E9" s="71">
+        <v>22.33</v>
+      </c>
+      <c r="F9" s="71">
+        <v>1</v>
+      </c>
+      <c r="G9" s="71">
+        <v>1.04</v>
+      </c>
+      <c r="H9" s="71">
+        <v>1.04</v>
+      </c>
+      <c r="I9" s="71">
+        <v>345</v>
+      </c>
+      <c r="J9" s="71">
+        <v>2694</v>
+      </c>
+      <c r="K9" s="76">
+        <v>120</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="71">
+        <v>136</v>
+      </c>
+      <c r="N9" s="71">
+        <v>93.24</v>
+      </c>
+      <c r="O9" s="71">
+        <v>1</v>
+      </c>
+      <c r="P9" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="76">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="16" t="s">
@@ -10937,16 +11026,51 @@
       <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="71"/>
+      <c r="C10" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="70">
+        <v>-15.5</v>
+      </c>
+      <c r="E10" s="70">
+        <v>22.33</v>
+      </c>
+      <c r="F10" s="70">
+        <v>1</v>
+      </c>
+      <c r="G10" s="70">
+        <v>1.04</v>
+      </c>
+      <c r="H10" s="70">
+        <v>1.04</v>
+      </c>
+      <c r="I10" s="70">
+        <v>345</v>
+      </c>
+      <c r="J10" s="70">
+        <v>2694</v>
+      </c>
+      <c r="K10" s="77">
+        <v>0</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="71">
+        <v>164</v>
+      </c>
+      <c r="N10" s="71">
+        <v>88.58</v>
+      </c>
+      <c r="O10" s="71">
+        <v>1</v>
+      </c>
+      <c r="P10" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="76">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="16" t="s">
@@ -10955,6 +11079,33 @@
       <c r="B11" s="18">
         <v>3</v>
       </c>
+      <c r="C11" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="71">
+        <v>129</v>
+      </c>
+      <c r="E11" s="71">
+        <v>22.33</v>
+      </c>
+      <c r="F11" s="71">
+        <v>1</v>
+      </c>
+      <c r="G11" s="71">
+        <v>1.73</v>
+      </c>
+      <c r="H11" s="71">
+        <v>1.73</v>
+      </c>
+      <c r="I11" s="71">
+        <v>345</v>
+      </c>
+      <c r="J11" s="71">
+        <v>2468</v>
+      </c>
+      <c r="K11" s="76">
+        <v>0</v>
+      </c>
       <c r="L11" s="71"/>
     </row>
     <row r="12" spans="1:19">
@@ -10962,7 +11113,34 @@
         <v>4</v>
       </c>
       <c r="B12" s="17">
-        <v>-50</v>
+        <v>-150</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="71">
+        <v>124</v>
+      </c>
+      <c r="E12" s="71">
+        <v>45.33</v>
+      </c>
+      <c r="F12" s="71">
+        <v>1</v>
+      </c>
+      <c r="G12" s="71">
+        <v>1.73</v>
+      </c>
+      <c r="H12" s="71">
+        <v>1.73</v>
+      </c>
+      <c r="I12" s="71">
+        <v>345</v>
+      </c>
+      <c r="J12" s="71">
+        <v>2468</v>
+      </c>
+      <c r="K12" s="76">
+        <v>120</v>
       </c>
       <c r="L12" s="71"/>
     </row>
@@ -10971,17 +11149,35 @@
         <v>6</v>
       </c>
       <c r="B13" s="20">
+        <v>150</v>
+      </c>
+      <c r="C13" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="77"/>
+      <c r="D13" s="70">
+        <v>128</v>
+      </c>
+      <c r="E13" s="70">
+        <v>68.33</v>
+      </c>
+      <c r="F13" s="70">
+        <v>1</v>
+      </c>
+      <c r="G13" s="70">
+        <v>1.73</v>
+      </c>
+      <c r="H13" s="70">
+        <v>1.73</v>
+      </c>
+      <c r="I13" s="70">
+        <v>345</v>
+      </c>
+      <c r="J13" s="70">
+        <v>2468</v>
+      </c>
+      <c r="K13" s="77">
+        <v>240</v>
+      </c>
       <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:19">
@@ -10989,23 +11185,95 @@
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
+      <c r="C14" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="71">
+        <v>171</v>
+      </c>
+      <c r="E14" s="71">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="F14" s="71">
+        <v>1</v>
+      </c>
+      <c r="G14" s="71">
+        <v>1.73</v>
+      </c>
+      <c r="H14" s="71">
+        <v>1.73</v>
+      </c>
+      <c r="I14" s="71">
+        <v>115</v>
+      </c>
+      <c r="J14" s="71">
+        <v>2468</v>
+      </c>
+      <c r="K14" s="76">
+        <v>240</v>
+      </c>
       <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
+      <c r="C15" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="71">
+        <v>176</v>
+      </c>
+      <c r="E15" s="71">
+        <v>40.67</v>
+      </c>
+      <c r="F15" s="71">
+        <v>1</v>
+      </c>
+      <c r="G15" s="71">
+        <v>1.73</v>
+      </c>
+      <c r="H15" s="71">
+        <v>1.73</v>
+      </c>
+      <c r="I15" s="71">
+        <v>115</v>
+      </c>
+      <c r="J15" s="71">
+        <v>2468</v>
+      </c>
+      <c r="K15" s="76">
+        <v>120</v>
+      </c>
       <c r="L15" s="71"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="74"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="77"/>
+      <c r="C16" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="70">
+        <v>172</v>
+      </c>
+      <c r="E16" s="70">
+        <v>63.67</v>
+      </c>
+      <c r="F16" s="70">
+        <v>1</v>
+      </c>
+      <c r="G16" s="70">
+        <v>1.73</v>
+      </c>
+      <c r="H16" s="70">
+        <v>1.73</v>
+      </c>
+      <c r="I16" s="70">
+        <v>115</v>
+      </c>
+      <c r="J16" s="70">
+        <v>2468</v>
+      </c>
+      <c r="K16" s="77">
+        <v>0</v>
+      </c>
       <c r="L16" s="71"/>
     </row>
     <row r="17" spans="3:14">
@@ -11034,15 +11302,6 @@
       <c r="N21" s="62"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="74"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
     <row r="23" spans="3:14">
@@ -11107,18 +11366,19 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="73" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="71" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="76" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="68" customWidth="1"/>
-    <col min="13" max="16" width="10.42578125" style="71" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="44" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="47" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="39" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="42" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" style="71" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" style="76" customWidth="1"/>
     <col min="18" max="18" width="22.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
@@ -11126,41 +11386,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
       <c r="O1" s="80"/>
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
       <c r="O2" s="81"/>
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
@@ -11204,37 +11464,37 @@
       <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="72" t="s">
@@ -11257,47 +11517,47 @@
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="71">
-        <v>-10</v>
-      </c>
-      <c r="E5" s="71">
-        <v>20</v>
-      </c>
-      <c r="F5" s="71">
-        <v>1</v>
-      </c>
-      <c r="G5" s="71">
-        <v>1</v>
-      </c>
-      <c r="H5" s="71">
-        <v>1</v>
-      </c>
-      <c r="I5" s="71">
-        <v>500</v>
-      </c>
-      <c r="J5" s="71">
-        <v>500</v>
-      </c>
-      <c r="K5" s="76">
-        <v>0</v>
+      <c r="B5" s="17">
+        <v>32</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="57">
+        <v>-234.5</v>
+      </c>
+      <c r="E5" s="57">
+        <v>22.33</v>
+      </c>
+      <c r="F5" s="57">
+        <v>1</v>
+      </c>
+      <c r="G5" s="57">
+        <v>1.04</v>
+      </c>
+      <c r="H5" s="57">
+        <v>1.04</v>
+      </c>
+      <c r="I5" s="57">
+        <v>345</v>
+      </c>
+      <c r="J5" s="57">
+        <v>2694</v>
+      </c>
+      <c r="K5" s="60">
+        <v>240</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="71">
-        <v>0</v>
+        <v>-222</v>
       </c>
       <c r="N5" s="71">
-        <v>25</v>
+        <v>46.66</v>
       </c>
       <c r="O5" s="71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P5" s="71">
         <v>0</v>
@@ -11307,54 +11567,71 @@
       </c>
       <c r="R5" s="30">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>26.25</v>
+        <v>97.902000000000001</v>
       </c>
       <c r="S5" s="30">
         <f>B12</f>
-        <v>-50</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="73" t="s">
+      <c r="B6" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="57">
+        <v>-200</v>
+      </c>
+      <c r="E6" s="57">
+        <v>22.33</v>
+      </c>
+      <c r="F6" s="57">
+        <v>1</v>
+      </c>
+      <c r="G6" s="57">
+        <v>1.04</v>
+      </c>
+      <c r="H6" s="57">
+        <v>1.04</v>
+      </c>
+      <c r="I6" s="57">
+        <v>345</v>
+      </c>
+      <c r="J6" s="57">
+        <v>2694</v>
+      </c>
+      <c r="K6" s="60">
+        <v>120</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="71">
+        <v>-178</v>
+      </c>
+      <c r="N6" s="71">
+        <v>46.66</v>
+      </c>
+      <c r="O6" s="71">
+        <v>1</v>
+      </c>
+      <c r="P6" s="71">
         <v>0</v>
       </c>
-      <c r="E6" s="71">
-        <v>20</v>
-      </c>
-      <c r="F6" s="71">
-        <v>1</v>
-      </c>
-      <c r="G6" s="71">
-        <v>1</v>
-      </c>
-      <c r="H6" s="71">
-        <v>1</v>
-      </c>
-      <c r="I6" s="71">
-        <v>500</v>
-      </c>
-      <c r="J6" s="71">
-        <v>500</v>
-      </c>
-      <c r="K6" s="76">
-        <v>120</v>
-      </c>
-      <c r="L6" s="71"/>
+      <c r="Q6" s="76">
+        <v>0</v>
+      </c>
       <c r="R6" s="30">
         <v>0</v>
       </c>
       <c r="S6" s="30">
         <f>B12</f>
-        <v>-50</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -11364,38 +11641,55 @@
       <c r="B7" s="18">
         <v>60</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="70">
-        <v>10</v>
-      </c>
-      <c r="E7" s="70">
-        <v>20</v>
-      </c>
-      <c r="F7" s="70">
-        <v>1</v>
-      </c>
-      <c r="G7" s="70">
-        <v>1</v>
-      </c>
-      <c r="H7" s="70">
-        <v>1</v>
-      </c>
-      <c r="I7" s="70">
-        <v>500</v>
-      </c>
-      <c r="J7" s="70">
-        <v>500</v>
-      </c>
-      <c r="K7" s="77">
-        <v>240</v>
-      </c>
-      <c r="L7" s="71"/>
+      <c r="C7" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="56">
+        <v>-165.5</v>
+      </c>
+      <c r="E7" s="56">
+        <v>22.33</v>
+      </c>
+      <c r="F7" s="56">
+        <v>1</v>
+      </c>
+      <c r="G7" s="56">
+        <v>1.04</v>
+      </c>
+      <c r="H7" s="56">
+        <v>1.04</v>
+      </c>
+      <c r="I7" s="56">
+        <v>345</v>
+      </c>
+      <c r="J7" s="56">
+        <v>2694</v>
+      </c>
+      <c r="K7" s="61">
+        <v>0</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="71">
+        <v>-72</v>
+      </c>
+      <c r="N7" s="71">
+        <v>46.66</v>
+      </c>
+      <c r="O7" s="71">
+        <v>1</v>
+      </c>
+      <c r="P7" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="76">
+        <v>0</v>
+      </c>
       <c r="R7" s="30"/>
       <c r="S7" s="30">
         <f>B13</f>
-        <v>50</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -11405,11 +11699,55 @@
       <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="L8" s="71"/>
+      <c r="C8" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="57">
+        <v>-84.5</v>
+      </c>
+      <c r="E8" s="57">
+        <v>22.33</v>
+      </c>
+      <c r="F8" s="57">
+        <v>1</v>
+      </c>
+      <c r="G8" s="57">
+        <v>1.04</v>
+      </c>
+      <c r="H8" s="57">
+        <v>1.04</v>
+      </c>
+      <c r="I8" s="57">
+        <v>345</v>
+      </c>
+      <c r="J8" s="57">
+        <v>2694</v>
+      </c>
+      <c r="K8" s="60">
+        <v>240</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="71">
+        <v>-28</v>
+      </c>
+      <c r="N8" s="71">
+        <v>46.66</v>
+      </c>
+      <c r="O8" s="71">
+        <v>1</v>
+      </c>
+      <c r="P8" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="76">
+        <v>0</v>
+      </c>
       <c r="R8" s="30"/>
       <c r="S8" s="30">
         <f>B13</f>
-        <v>50</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -11417,9 +11755,53 @@
         <v>20</v>
       </c>
       <c r="B9" s="17">
-        <v>250</v>
-      </c>
-      <c r="L9" s="71"/>
+        <v>300</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="57">
+        <v>-50</v>
+      </c>
+      <c r="E9" s="57">
+        <v>22.33</v>
+      </c>
+      <c r="F9" s="57">
+        <v>1</v>
+      </c>
+      <c r="G9" s="57">
+        <v>1.04</v>
+      </c>
+      <c r="H9" s="57">
+        <v>1.04</v>
+      </c>
+      <c r="I9" s="57">
+        <v>345</v>
+      </c>
+      <c r="J9" s="57">
+        <v>2694</v>
+      </c>
+      <c r="K9" s="60">
+        <v>120</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="71">
+        <v>136</v>
+      </c>
+      <c r="N9" s="71">
+        <v>93.24</v>
+      </c>
+      <c r="O9" s="71">
+        <v>1</v>
+      </c>
+      <c r="P9" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="76">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="16" t="s">
@@ -11428,16 +11810,51 @@
       <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="71"/>
+      <c r="C10" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="56">
+        <v>-15.5</v>
+      </c>
+      <c r="E10" s="56">
+        <v>22.33</v>
+      </c>
+      <c r="F10" s="56">
+        <v>1</v>
+      </c>
+      <c r="G10" s="56">
+        <v>1.04</v>
+      </c>
+      <c r="H10" s="56">
+        <v>1.04</v>
+      </c>
+      <c r="I10" s="56">
+        <v>345</v>
+      </c>
+      <c r="J10" s="56">
+        <v>2694</v>
+      </c>
+      <c r="K10" s="61">
+        <v>0</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="71">
+        <v>164</v>
+      </c>
+      <c r="N10" s="71">
+        <v>88.58</v>
+      </c>
+      <c r="O10" s="71">
+        <v>1</v>
+      </c>
+      <c r="P10" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="76">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="16" t="s">
@@ -11446,113 +11863,435 @@
       <c r="B11" s="18">
         <v>3</v>
       </c>
-      <c r="L11" s="71"/>
+      <c r="C11" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="57">
+        <v>129</v>
+      </c>
+      <c r="E11" s="57">
+        <v>22.33</v>
+      </c>
+      <c r="F11" s="57">
+        <v>1</v>
+      </c>
+      <c r="G11" s="57">
+        <v>1.73</v>
+      </c>
+      <c r="H11" s="57">
+        <v>1.73</v>
+      </c>
+      <c r="I11" s="57">
+        <v>345</v>
+      </c>
+      <c r="J11" s="57">
+        <v>2468</v>
+      </c>
+      <c r="K11" s="60">
+        <v>0</v>
+      </c>
+      <c r="L11" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="71">
+        <v>219.66</v>
+      </c>
+      <c r="N11" s="71">
+        <v>58.42</v>
+      </c>
+      <c r="O11" s="71">
+        <v>1</v>
+      </c>
+      <c r="P11" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="76">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="17">
-        <v>-50</v>
-      </c>
-      <c r="L12" s="71"/>
+        <v>-275</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="57">
+        <v>124</v>
+      </c>
+      <c r="E12" s="57">
+        <v>45.33</v>
+      </c>
+      <c r="F12" s="57">
+        <v>1</v>
+      </c>
+      <c r="G12" s="57">
+        <v>1.73</v>
+      </c>
+      <c r="H12" s="57">
+        <v>1.73</v>
+      </c>
+      <c r="I12" s="57">
+        <v>345</v>
+      </c>
+      <c r="J12" s="57">
+        <v>2468</v>
+      </c>
+      <c r="K12" s="60">
+        <v>120</v>
+      </c>
+      <c r="L12" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="71">
+        <v>230.33</v>
+      </c>
+      <c r="N12" s="71">
+        <v>58.42</v>
+      </c>
+      <c r="O12" s="71">
+        <v>1</v>
+      </c>
+      <c r="P12" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="76">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="20">
+        <v>275</v>
+      </c>
+      <c r="C13" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="71"/>
+      <c r="D13" s="56">
+        <v>128</v>
+      </c>
+      <c r="E13" s="56">
+        <v>68.33</v>
+      </c>
+      <c r="F13" s="56">
+        <v>1</v>
+      </c>
+      <c r="G13" s="56">
+        <v>1.73</v>
+      </c>
+      <c r="H13" s="56">
+        <v>1.73</v>
+      </c>
+      <c r="I13" s="56">
+        <v>345</v>
+      </c>
+      <c r="J13" s="56">
+        <v>2468</v>
+      </c>
+      <c r="K13" s="61">
+        <v>240</v>
+      </c>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
-      <c r="L14" s="71"/>
+      <c r="C14" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="57">
+        <v>171</v>
+      </c>
+      <c r="E14" s="57">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="F14" s="57">
+        <v>1</v>
+      </c>
+      <c r="G14" s="57">
+        <v>1.73</v>
+      </c>
+      <c r="H14" s="57">
+        <v>1.73</v>
+      </c>
+      <c r="I14" s="57">
+        <v>115</v>
+      </c>
+      <c r="J14" s="57">
+        <v>2468</v>
+      </c>
+      <c r="K14" s="60">
+        <v>240</v>
+      </c>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:19" ht="12.75" customHeight="1">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
-      <c r="L15" s="71"/>
+      <c r="C15" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="57">
+        <v>176</v>
+      </c>
+      <c r="E15" s="57">
+        <v>40.67</v>
+      </c>
+      <c r="F15" s="57">
+        <v>1</v>
+      </c>
+      <c r="G15" s="57">
+        <v>1.73</v>
+      </c>
+      <c r="H15" s="57">
+        <v>1.73</v>
+      </c>
+      <c r="I15" s="57">
+        <v>115</v>
+      </c>
+      <c r="J15" s="57">
+        <v>2468</v>
+      </c>
+      <c r="K15" s="60">
+        <v>120</v>
+      </c>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="74"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="71"/>
+      <c r="C16" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="56">
+        <v>172</v>
+      </c>
+      <c r="E16" s="56">
+        <v>63.67</v>
+      </c>
+      <c r="F16" s="56">
+        <v>1</v>
+      </c>
+      <c r="G16" s="56">
+        <v>1.73</v>
+      </c>
+      <c r="H16" s="56">
+        <v>1.73</v>
+      </c>
+      <c r="I16" s="56">
+        <v>115</v>
+      </c>
+      <c r="J16" s="56">
+        <v>2468</v>
+      </c>
+      <c r="K16" s="61">
+        <v>0</v>
+      </c>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="L17" s="71"/>
+      <c r="C17" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="57">
+        <v>217.58</v>
+      </c>
+      <c r="E17" s="57">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="F17" s="57">
+        <v>1</v>
+      </c>
+      <c r="G17" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="H17" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="I17" s="57">
+        <v>115</v>
+      </c>
+      <c r="J17" s="57">
+        <v>1664</v>
+      </c>
+      <c r="K17" s="60">
+        <v>0</v>
+      </c>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="3:14">
-      <c r="L18" s="71"/>
+      <c r="C18" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="57">
+        <v>214.33</v>
+      </c>
+      <c r="E18" s="57">
+        <v>32.17</v>
+      </c>
+      <c r="F18" s="57">
+        <v>1</v>
+      </c>
+      <c r="G18" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="H18" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="I18" s="57">
+        <v>115</v>
+      </c>
+      <c r="J18" s="57">
+        <v>1664</v>
+      </c>
+      <c r="K18" s="60">
+        <v>240</v>
+      </c>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="74"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="71"/>
+      <c r="C19" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="56">
+        <v>217.25</v>
+      </c>
+      <c r="E19" s="56">
+        <v>44.17</v>
+      </c>
+      <c r="F19" s="56">
+        <v>1</v>
+      </c>
+      <c r="G19" s="56">
+        <v>1.29</v>
+      </c>
+      <c r="H19" s="56">
+        <v>1.29</v>
+      </c>
+      <c r="I19" s="56">
+        <v>115</v>
+      </c>
+      <c r="J19" s="56">
+        <v>1664</v>
+      </c>
+      <c r="K19" s="61">
+        <v>120</v>
+      </c>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="3:14">
-      <c r="L20" s="71"/>
-      <c r="N20" s="62"/>
+      <c r="C20" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="57">
+        <v>232.41</v>
+      </c>
+      <c r="E20" s="57">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="F20" s="57">
+        <v>1</v>
+      </c>
+      <c r="G20" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="H20" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="I20" s="57">
+        <v>115</v>
+      </c>
+      <c r="J20" s="57">
+        <v>1664</v>
+      </c>
+      <c r="K20" s="60">
+        <v>120</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="N20" s="33"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="N21" s="62"/>
+      <c r="C21" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="57">
+        <v>235.66</v>
+      </c>
+      <c r="E21" s="57">
+        <v>32.17</v>
+      </c>
+      <c r="F21" s="57">
+        <v>1</v>
+      </c>
+      <c r="G21" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="H21" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="I21" s="57">
+        <v>115</v>
+      </c>
+      <c r="J21" s="57">
+        <v>1664</v>
+      </c>
+      <c r="K21" s="60">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="74"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="77"/>
-      <c r="N22" s="62"/>
+      <c r="C22" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="57">
+        <v>232.75</v>
+      </c>
+      <c r="E22" s="57">
+        <v>44.17</v>
+      </c>
+      <c r="F22" s="57">
+        <v>1</v>
+      </c>
+      <c r="G22" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="H22" s="57">
+        <v>1.29</v>
+      </c>
+      <c r="I22" s="57">
+        <v>115</v>
+      </c>
+      <c r="J22" s="57">
+        <v>1664</v>
+      </c>
+      <c r="K22" s="60">
+        <v>240</v>
+      </c>
+      <c r="N22" s="33"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="N23" s="62"/>
+      <c r="N23" s="33"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="N24" s="62"/>
+      <c r="N24" s="33"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="C25" s="74"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="77"/>
-      <c r="N25" s="62"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="48"/>
+      <c r="N25" s="33"/>
     </row>
     <row r="26" spans="3:14">
       <c r="C26" s="31"/>
@@ -11564,8 +12303,8 @@
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
-      <c r="L26" s="73"/>
-      <c r="N26" s="62"/>
+      <c r="L26" s="44"/>
+      <c r="N26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11758,7 +12497,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="71">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F5" s="71">
         <v>1</v>
@@ -11785,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="71">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="O5" s="71">
         <v>0.5</v>
@@ -11798,7 +12537,7 @@
       </c>
       <c r="R5" s="30">
         <f>MAX(E5:E25,N5:N26)*1.05</f>
-        <v>36.75</v>
+        <v>15.75</v>
       </c>
       <c r="S5" s="30">
         <f>B12</f>
@@ -11809,8 +12548,8 @@
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>65</v>
+      <c r="B6" s="79" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="73" t="s">
         <v>24</v>
@@ -11819,7 +12558,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="71">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F6" s="71">
         <v>1</v>
@@ -11862,7 +12601,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="70">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" s="70">
         <v>1</v>
@@ -12085,6 +12824,988 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="73" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="71" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="76" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="68" customWidth="1"/>
+    <col min="13" max="16" width="10.42578125" style="71" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="76" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+    </row>
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75">
+      <c r="A3" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="89"/>
+    </row>
+    <row r="4" spans="1:19" ht="38.25">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="71">
+        <v>-10</v>
+      </c>
+      <c r="E5" s="71">
+        <v>20</v>
+      </c>
+      <c r="F5" s="71">
+        <v>1</v>
+      </c>
+      <c r="G5" s="71">
+        <v>1</v>
+      </c>
+      <c r="H5" s="71">
+        <v>1</v>
+      </c>
+      <c r="I5" s="71">
+        <v>500</v>
+      </c>
+      <c r="J5" s="71">
+        <v>500</v>
+      </c>
+      <c r="K5" s="76">
+        <v>0</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="71">
+        <v>0</v>
+      </c>
+      <c r="N5" s="71">
+        <v>25</v>
+      </c>
+      <c r="O5" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="76">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30">
+        <f>MAX(E5:E25,N5:N26)*1.05</f>
+        <v>26.25</v>
+      </c>
+      <c r="S5" s="30">
+        <f>B12</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="71">
+        <v>0</v>
+      </c>
+      <c r="E6" s="71">
+        <v>20</v>
+      </c>
+      <c r="F6" s="71">
+        <v>1</v>
+      </c>
+      <c r="G6" s="71">
+        <v>1</v>
+      </c>
+      <c r="H6" s="71">
+        <v>1</v>
+      </c>
+      <c r="I6" s="71">
+        <v>500</v>
+      </c>
+      <c r="J6" s="71">
+        <v>500</v>
+      </c>
+      <c r="K6" s="76">
+        <v>120</v>
+      </c>
+      <c r="L6" s="71"/>
+      <c r="R6" s="30">
+        <v>0</v>
+      </c>
+      <c r="S6" s="30">
+        <f>B12</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>60</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="70">
+        <v>10</v>
+      </c>
+      <c r="E7" s="70">
+        <v>20</v>
+      </c>
+      <c r="F7" s="70">
+        <v>1</v>
+      </c>
+      <c r="G7" s="70">
+        <v>1</v>
+      </c>
+      <c r="H7" s="70">
+        <v>1</v>
+      </c>
+      <c r="I7" s="70">
+        <v>500</v>
+      </c>
+      <c r="J7" s="70">
+        <v>500</v>
+      </c>
+      <c r="K7" s="77">
+        <v>240</v>
+      </c>
+      <c r="L7" s="71"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30">
+        <f>B13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>100</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30">
+        <f>B13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="17">
+        <v>250</v>
+      </c>
+      <c r="L9" s="71"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="71"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="L11" s="71"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17">
+        <v>-50</v>
+      </c>
+      <c r="L12" s="71"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="20">
+        <v>50</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="L14" s="71"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="74"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="L17" s="71"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="74"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="L20" s="71"/>
+      <c r="N20" s="62"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="74"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="77"/>
+      <c r="N22" s="62"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="N23" s="62"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="74"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="77"/>
+      <c r="N25" s="62"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="73"/>
+      <c r="N26" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A14:B15"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
+    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
+&amp;"-,Regular"&amp;K4D4D4D
+&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="73" customWidth="1"/>
+    <col min="4" max="10" width="10.42578125" style="71" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="76" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="68" customWidth="1"/>
+    <col min="13" max="16" width="10.42578125" style="71" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="76" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+    </row>
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75">
+      <c r="A3" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="89"/>
+    </row>
+    <row r="4" spans="1:19" ht="38.25">
+      <c r="A4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="71">
+        <v>-10</v>
+      </c>
+      <c r="E5" s="71">
+        <v>30</v>
+      </c>
+      <c r="F5" s="71">
+        <v>1</v>
+      </c>
+      <c r="G5" s="71">
+        <v>1</v>
+      </c>
+      <c r="H5" s="71">
+        <v>1</v>
+      </c>
+      <c r="I5" s="71">
+        <v>500</v>
+      </c>
+      <c r="J5" s="71">
+        <v>500</v>
+      </c>
+      <c r="K5" s="76">
+        <v>0</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="71">
+        <v>0</v>
+      </c>
+      <c r="N5" s="71">
+        <v>35</v>
+      </c>
+      <c r="O5" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="76">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30">
+        <f>MAX(E5:E25,N5:N26)*1.05</f>
+        <v>36.75</v>
+      </c>
+      <c r="S5" s="30">
+        <f>B12</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="71">
+        <v>0</v>
+      </c>
+      <c r="E6" s="71">
+        <v>30</v>
+      </c>
+      <c r="F6" s="71">
+        <v>1</v>
+      </c>
+      <c r="G6" s="71">
+        <v>1</v>
+      </c>
+      <c r="H6" s="71">
+        <v>1</v>
+      </c>
+      <c r="I6" s="71">
+        <v>500</v>
+      </c>
+      <c r="J6" s="71">
+        <v>500</v>
+      </c>
+      <c r="K6" s="76">
+        <v>120</v>
+      </c>
+      <c r="L6" s="71"/>
+      <c r="R6" s="30">
+        <v>0</v>
+      </c>
+      <c r="S6" s="30">
+        <f>B12</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>60</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="70">
+        <v>10</v>
+      </c>
+      <c r="E7" s="70">
+        <v>30</v>
+      </c>
+      <c r="F7" s="70">
+        <v>1</v>
+      </c>
+      <c r="G7" s="70">
+        <v>1</v>
+      </c>
+      <c r="H7" s="70">
+        <v>1</v>
+      </c>
+      <c r="I7" s="70">
+        <v>500</v>
+      </c>
+      <c r="J7" s="70">
+        <v>500</v>
+      </c>
+      <c r="K7" s="77">
+        <v>240</v>
+      </c>
+      <c r="L7" s="71"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30">
+        <f>B13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>100</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30">
+        <f>B13</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="17">
+        <v>250</v>
+      </c>
+      <c r="L9" s="71"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="71"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="L11" s="71"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17">
+        <v>-50</v>
+      </c>
+      <c r="L12" s="71"/>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+      <c r="A13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="20">
+        <v>50</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="L14" s="71"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="74"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="L17" s="71"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="74"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="L20" s="71"/>
+      <c r="N20" s="62"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="74"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="77"/>
+      <c r="N22" s="62"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="N23" s="62"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="74"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="77"/>
+      <c r="N25" s="62"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="73"/>
+      <c r="N26" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A14:B15"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.5" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Regular"&amp;9Draft&amp;C&amp;"Times New Roman,Bold"&amp;11 </oddHeader>
+    <oddFooter>&amp;L&amp;K4D4D4DG&amp;8RADIENT&amp;"Cambria,Regular"&amp;6
+&amp;"-,Regular"&amp;K4D4D4D
+&amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S26"/>
   <sheetViews>
@@ -13696,7 +15417,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -15688,7 +17409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/working_files/fields/practice_xcs.xlsx
+++ b/working_files/fields/practice_xcs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MBaum\Programming\Python\python_code\emf\working_files\fields\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="10"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="27" r:id="rId1"/>
@@ -27,7 +32,7 @@
     <sheet name="raise3" sheetId="25" r:id="rId18"/>
     <sheet name="Vertical_1_W" sheetId="33" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -309,8 +314,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -944,12 +949,30 @@
       <color rgb="FF4D4D4D"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -964,11 +987,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1008,6 +1034,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1042,6 +1069,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1092,6 +1120,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1140,15 +1169,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="106208256"/>
-        <c:axId val="106219008"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="34053296"/>
+        <c:axId val="239720696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106208256"/>
+        <c:axId val="34053296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1167,18 +1206,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106219008"/>
+        <c:crossAx val="239720696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106219008"/>
+        <c:axId val="239720696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1198,10 +1241,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106208256"/>
+        <c:crossAx val="34053296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1209,9 +1255,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1223,7 +1271,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1237,12 +1295,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1294,6 +1354,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1340,6 +1401,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1390,6 +1452,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1438,15 +1501,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="55977088"/>
-        <c:axId val="55979008"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243032088"/>
+        <c:axId val="243032480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55977088"/>
+        <c:axId val="243032088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1464,19 +1537,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55979008"/>
+        <c:crossAx val="243032480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55979008"/>
+        <c:axId val="243032480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1495,21 +1571,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55977088"/>
+        <c:crossAx val="243032088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1521,7 +1600,17 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1536,11 +1625,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1592,6 +1684,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1632,6 +1725,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1682,6 +1776,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1730,15 +1825,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="80664064"/>
-        <c:axId val="80665984"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="244851024"/>
+        <c:axId val="244851416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80664064"/>
+        <c:axId val="244851024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1757,18 +1862,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80665984"/>
+        <c:crossAx val="244851416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80665984"/>
+        <c:axId val="244851416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1788,10 +1897,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80664064"/>
+        <c:crossAx val="244851024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1799,9 +1911,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1813,7 +1927,17 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1827,12 +1951,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1902,6 +2028,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1954,6 +2081,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2004,6 +2132,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2052,15 +2181,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="160651520"/>
-        <c:axId val="160661888"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="244852200"/>
+        <c:axId val="244852592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160651520"/>
+        <c:axId val="244852200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2078,19 +2217,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160661888"/>
+        <c:crossAx val="244852592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160661888"/>
+        <c:axId val="244852592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2109,21 +2251,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160651520"/>
+        <c:crossAx val="244852200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2135,7 +2280,17 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2149,12 +2304,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2224,6 +2381,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2270,6 +2428,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2320,6 +2479,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2368,15 +2528,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="162843648"/>
-        <c:axId val="162854016"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="244853376"/>
+        <c:axId val="244853768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162843648"/>
+        <c:axId val="244853376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2394,19 +2564,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162854016"/>
+        <c:crossAx val="244853768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162854016"/>
+        <c:axId val="244853768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2425,21 +2598,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162843648"/>
+        <c:crossAx val="244853376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2451,7 +2627,17 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2465,12 +2651,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2576,6 +2764,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2646,6 +2835,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2696,6 +2886,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2744,15 +2935,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="162856960"/>
-        <c:axId val="162858880"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245391872"/>
+        <c:axId val="245392264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162856960"/>
+        <c:axId val="245391872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2770,19 +2971,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162858880"/>
+        <c:crossAx val="245392264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162858880"/>
+        <c:axId val="245392264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2801,21 +3005,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162856960"/>
+        <c:crossAx val="245391872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2827,7 +3034,17 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2841,12 +3058,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2988,6 +3207,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3070,6 +3290,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3120,6 +3341,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3168,15 +3390,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="168784640"/>
-        <c:axId val="168786560"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245393048"/>
+        <c:axId val="245393440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168784640"/>
+        <c:axId val="245393048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3194,19 +3426,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168786560"/>
+        <c:crossAx val="245393440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168786560"/>
+        <c:axId val="245393440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3225,21 +3460,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168784640"/>
+        <c:crossAx val="245393048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3251,7 +3489,17 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3265,12 +3513,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3322,6 +3572,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3362,6 +3613,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3412,6 +3664,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3460,15 +3713,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="168818176"/>
-        <c:axId val="168820096"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245394224"/>
+        <c:axId val="245394616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168818176"/>
+        <c:axId val="245394224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3486,19 +3749,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168820096"/>
+        <c:crossAx val="245394616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168820096"/>
+        <c:axId val="245394616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3517,21 +3783,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168818176"/>
+        <c:crossAx val="245394224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3543,7 +3812,17 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3557,12 +3836,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3614,6 +3895,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3654,6 +3936,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3704,6 +3987,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3752,15 +4036,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="168921344"/>
-        <c:axId val="168931712"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="245395400"/>
+        <c:axId val="242841536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168921344"/>
+        <c:axId val="245395400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3778,19 +4072,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168931712"/>
+        <c:crossAx val="242841536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168931712"/>
+        <c:axId val="242841536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3809,21 +4106,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168921344"/>
+        <c:crossAx val="245395400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3835,7 +4135,17 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3849,12 +4159,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3906,6 +4218,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3946,6 +4259,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3996,6 +4310,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4044,15 +4359,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="162872320"/>
-        <c:axId val="168723584"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="242842320"/>
+        <c:axId val="242842712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162872320"/>
+        <c:axId val="242842320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4070,19 +4395,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168723584"/>
+        <c:crossAx val="242842712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168723584"/>
+        <c:axId val="242842712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4101,21 +4429,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162872320"/>
+        <c:crossAx val="242842320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4127,7 +4458,17 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4141,12 +4482,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4198,6 +4541,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4238,6 +4582,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4288,6 +4633,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4336,15 +4682,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="173556096"/>
-        <c:axId val="173558016"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="242843496"/>
+        <c:axId val="242843888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173556096"/>
+        <c:axId val="242843496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4362,19 +4718,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173558016"/>
+        <c:crossAx val="242843888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173558016"/>
+        <c:axId val="242843888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4393,21 +4752,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173556096"/>
+        <c:crossAx val="242843496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4419,7 +4781,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4434,11 +4806,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4478,6 +4853,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4518,6 +4894,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4568,6 +4945,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4616,15 +4994,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="106791296"/>
-        <c:axId val="106793216"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="241259680"/>
+        <c:axId val="241260072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106791296"/>
+        <c:axId val="241259680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4643,18 +5031,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106793216"/>
+        <c:crossAx val="241260072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106793216"/>
+        <c:axId val="241260072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4674,10 +5066,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106791296"/>
+        <c:crossAx val="241259680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4685,9 +5080,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4699,7 +5096,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4714,11 +5121,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4806,6 +5216,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4858,6 +5269,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4908,6 +5320,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4956,15 +5369,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="106955904"/>
-        <c:axId val="106957824"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="241260856"/>
+        <c:axId val="241261248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106955904"/>
+        <c:axId val="241260856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4983,18 +5406,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106957824"/>
+        <c:crossAx val="241261248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106957824"/>
+        <c:axId val="241261248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5014,10 +5441,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106955904"/>
+        <c:crossAx val="241260856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5025,9 +5455,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5039,7 +5471,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5053,12 +5495,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5146,6 +5590,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5198,6 +5643,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5248,6 +5694,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5296,15 +5743,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="107017728"/>
-        <c:axId val="107019648"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="244071976"/>
+        <c:axId val="244072368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107017728"/>
+        <c:axId val="244071976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5322,19 +5779,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107019648"/>
+        <c:crossAx val="244072368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107019648"/>
+        <c:axId val="244072368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5353,21 +5813,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107017728"/>
+        <c:crossAx val="244071976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5379,7 +5842,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5393,11 +5866,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5485,6 +5961,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5537,6 +6014,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5587,6 +6065,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5635,15 +6114,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="157579520"/>
-        <c:axId val="157589888"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="244073152"/>
+        <c:axId val="244073544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157579520"/>
+        <c:axId val="244073152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5661,18 +6150,22 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157589888"/>
+        <c:crossAx val="244073544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157589888"/>
+        <c:axId val="244073544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5691,19 +6184,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157579520"/>
+        <c:crossAx val="244073152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5715,7 +6213,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5729,11 +6237,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5821,6 +6332,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5867,6 +6379,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5917,6 +6430,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5965,15 +6479,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="157707264"/>
-        <c:axId val="157713536"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="244074328"/>
+        <c:axId val="244074720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157707264"/>
+        <c:axId val="244074328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5991,18 +6515,22 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157713536"/>
+        <c:crossAx val="244074720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157713536"/>
+        <c:axId val="244074720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6021,19 +6549,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157707264"/>
+        <c:crossAx val="244074328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6045,7 +6578,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6059,12 +6602,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6116,6 +6661,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6150,6 +6696,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6200,6 +6747,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6248,15 +6796,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="157745920"/>
-        <c:axId val="157747840"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="244075504"/>
+        <c:axId val="243028952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157745920"/>
+        <c:axId val="244075504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6274,19 +6832,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157747840"/>
+        <c:crossAx val="243028952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157747840"/>
+        <c:axId val="243028952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6305,21 +6866,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157745920"/>
+        <c:crossAx val="244075504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6331,7 +6895,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6345,12 +6919,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6438,6 +7014,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6484,6 +7061,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6534,6 +7112,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6582,15 +7161,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="158999296"/>
-        <c:axId val="159001216"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243029736"/>
+        <c:axId val="243030128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158999296"/>
+        <c:axId val="243029736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6608,19 +7197,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159001216"/>
+        <c:crossAx val="243030128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159001216"/>
+        <c:axId val="243030128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6639,21 +7231,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158999296"/>
+        <c:crossAx val="243029736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6665,7 +7260,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -6679,12 +7284,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6772,6 +7379,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6818,6 +7426,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6868,6 +7477,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6916,15 +7526,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="159073792"/>
-        <c:axId val="159075712"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243030912"/>
+        <c:axId val="243031304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159073792"/>
+        <c:axId val="243030912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6942,19 +7562,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159075712"/>
+        <c:crossAx val="243031304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159075712"/>
+        <c:axId val="243031304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6973,21 +7596,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159073792"/>
+        <c:crossAx val="243030912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7717,7 +8343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7749,9 +8375,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7783,6 +8410,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7958,14 +8586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="64" customWidth="1"/>
@@ -7980,7 +8608,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>86</v>
       </c>
@@ -8001,7 +8629,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -8020,7 +8648,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -8049,7 +8677,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -8108,7 +8736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8152,7 +8780,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -8168,7 +8796,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -8191,7 +8819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -8205,7 +8833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -8214,7 +8842,7 @@
       </c>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -8232,7 +8860,7 @@
       <c r="K10" s="77"/>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -8241,7 +8869,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -8250,7 +8878,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -8268,19 +8896,19 @@
       <c r="K13" s="77"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -8292,13 +8920,13 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -8310,14 +8938,14 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -8329,13 +8957,13 @@
       <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -8347,7 +8975,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -8387,14 +9015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="64" customWidth="1"/>
@@ -8409,7 +9037,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -8430,7 +9058,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -8449,7 +9077,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -8478,7 +9106,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -8537,7 +9165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -8598,7 +9226,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -8658,7 +9286,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -8699,7 +9327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -8715,7 +9343,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -8726,7 +9354,7 @@
       <c r="M9" s="62"/>
       <c r="N9" s="62"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -8746,7 +9374,7 @@
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -8755,7 +9383,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -8764,7 +9392,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -8782,19 +9410,19 @@
       <c r="K13" s="77"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -8806,13 +9434,13 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -8824,14 +9452,14 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -8843,13 +9471,13 @@
       <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -8861,7 +9489,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -8896,14 +9524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="64" customWidth="1"/>
@@ -8918,7 +9546,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -8939,7 +9567,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -8958,7 +9586,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -8987,7 +9615,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -9046,7 +9674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -9107,7 +9735,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -9150,7 +9778,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -9191,7 +9819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -9207,7 +9835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -9218,7 +9846,7 @@
       <c r="M9" s="62"/>
       <c r="N9" s="62"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -9238,7 +9866,7 @@
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -9247,7 +9875,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -9256,7 +9884,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -9274,19 +9902,19 @@
       <c r="K13" s="77"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -9298,13 +9926,13 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -9316,14 +9944,14 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -9335,13 +9963,13 @@
       <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -9353,7 +9981,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -9388,14 +10016,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -9411,7 +10039,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9432,7 +10060,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -9451,7 +10079,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -9480,7 +10108,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -9539,7 +10167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -9600,7 +10228,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -9660,7 +10288,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -9718,7 +10346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -9761,7 +10389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -9799,7 +10427,7 @@
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -9837,7 +10465,7 @@
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -9846,7 +10474,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -9855,7 +10483,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -9873,19 +10501,19 @@
       <c r="K13" s="15"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -9897,13 +10525,13 @@
       <c r="K16" s="15"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="12"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -9915,14 +10543,14 @@
       <c r="K19" s="15"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="9"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="12"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -9934,13 +10562,13 @@
       <c r="K22" s="15"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="12"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -9952,7 +10580,7 @@
       <c r="K25" s="15"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -9992,14 +10620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="35" customWidth="1"/>
@@ -10015,7 +10643,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -10036,7 +10664,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -10055,7 +10683,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -10084,7 +10712,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -10143,7 +10771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -10204,7 +10832,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -10264,7 +10892,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -10305,7 +10933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -10348,7 +10976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -10386,7 +11014,7 @@
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -10424,7 +11052,7 @@
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -10433,7 +11061,7 @@
       </c>
       <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -10442,7 +11070,7 @@
       </c>
       <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -10460,19 +11088,19 @@
       <c r="K13" s="48"/>
       <c r="L13" s="42"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="42"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="45"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
@@ -10484,13 +11112,13 @@
       <c r="K16" s="48"/>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="45"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
@@ -10502,14 +11130,14 @@
       <c r="K19" s="48"/>
       <c r="L19" s="42"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="42"/>
       <c r="N20" s="33"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="33"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="45"/>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
@@ -10521,13 +11149,13 @@
       <c r="K22" s="48"/>
       <c r="N22" s="33"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="33"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="33"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="45"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
@@ -10539,7 +11167,7 @@
       <c r="K25" s="48"/>
       <c r="N25" s="33"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -10579,14 +11207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="64" customWidth="1"/>
@@ -10601,7 +11229,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -10622,7 +11250,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -10641,7 +11269,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -10670,7 +11298,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -10729,7 +11357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -10790,7 +11418,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -10850,7 +11478,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -10908,7 +11536,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -10966,7 +11594,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -11019,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -11072,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -11108,7 +11736,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -11144,7 +11772,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -11180,7 +11808,7 @@
       </c>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
@@ -11214,7 +11842,7 @@
       </c>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="C15" s="73" t="s">
@@ -11246,7 +11874,7 @@
       </c>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74" t="s">
         <v>53</v>
       </c>
@@ -11276,13 +11904,13 @@
       </c>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -11294,23 +11922,23 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -11322,7 +11950,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -11362,14 +11990,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="35" customWidth="1"/>
@@ -11385,7 +12013,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -11406,7 +12034,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -11425,7 +12053,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -11454,7 +12082,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -11513,7 +12141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -11574,7 +12202,7 @@
         <v>-275</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -11634,7 +12262,7 @@
         <v>-275</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -11692,7 +12320,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -11750,7 +12378,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -11803,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -11856,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -11909,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -11962,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -11998,7 +12626,7 @@
       </c>
       <c r="L13" s="42"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
@@ -12032,7 +12660,7 @@
       </c>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="C15" s="58" t="s">
@@ -12064,7 +12692,7 @@
       </c>
       <c r="L15" s="42"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="59" t="s">
         <v>53</v>
       </c>
@@ -12094,7 +12722,7 @@
       </c>
       <c r="L16" s="42"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="58" t="s">
         <v>35</v>
       </c>
@@ -12124,7 +12752,7 @@
       </c>
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="58" t="s">
         <v>36</v>
       </c>
@@ -12154,7 +12782,7 @@
       </c>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="59" t="s">
         <v>33</v>
       </c>
@@ -12184,7 +12812,7 @@
       </c>
       <c r="L19" s="42"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="58" t="s">
         <v>54</v>
       </c>
@@ -12215,7 +12843,7 @@
       <c r="L20" s="42"/>
       <c r="N20" s="33"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="58" t="s">
         <v>55</v>
       </c>
@@ -12245,7 +12873,7 @@
       </c>
       <c r="N21" s="33"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="58" t="s">
         <v>56</v>
       </c>
@@ -12275,13 +12903,13 @@
       </c>
       <c r="N22" s="33"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="33"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="33"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="45"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
@@ -12293,7 +12921,7 @@
       <c r="K25" s="48"/>
       <c r="N25" s="33"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -12333,14 +12961,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="64" customWidth="1"/>
@@ -12355,7 +12983,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -12376,7 +13004,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -12395,7 +13023,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -12424,7 +13052,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -12483,7 +13111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -12544,7 +13172,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -12587,7 +13215,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -12628,7 +13256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -12642,7 +13270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -12651,7 +13279,7 @@
       </c>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -12669,7 +13297,7 @@
       <c r="K10" s="77"/>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -12678,7 +13306,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -12687,7 +13315,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -12705,19 +13333,19 @@
       <c r="K13" s="77"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -12729,13 +13357,13 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -12747,14 +13375,14 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -12766,13 +13394,13 @@
       <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -12784,7 +13412,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -12824,14 +13452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="64" customWidth="1"/>
@@ -12846,7 +13474,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -12867,7 +13495,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -12886,7 +13514,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -12915,7 +13543,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -12974,7 +13602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -13035,7 +13663,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -13078,7 +13706,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -13119,7 +13747,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -13133,7 +13761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -13142,7 +13770,7 @@
       </c>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -13160,7 +13788,7 @@
       <c r="K10" s="77"/>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -13169,7 +13797,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -13178,7 +13806,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -13196,19 +13824,19 @@
       <c r="K13" s="77"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -13220,13 +13848,13 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -13238,14 +13866,14 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -13257,13 +13885,13 @@
       <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -13275,7 +13903,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -13315,14 +13943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="64" customWidth="1"/>
@@ -13337,7 +13965,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -13358,7 +13986,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -13377,7 +14005,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -13406,7 +14034,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -13465,7 +14093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -13526,7 +14154,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -13569,7 +14197,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -13610,7 +14238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -13624,7 +14252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -13633,7 +14261,7 @@
       </c>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -13651,7 +14279,7 @@
       <c r="K10" s="77"/>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -13660,7 +14288,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -13669,7 +14297,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -13687,19 +14315,19 @@
       <c r="K13" s="77"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -13711,13 +14339,13 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -13729,14 +14357,14 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -13748,13 +14376,13 @@
       <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -13766,7 +14394,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -13806,14 +14434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="64" customWidth="1"/>
@@ -13828,7 +14456,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -13849,7 +14477,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -13868,7 +14496,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -13897,7 +14525,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -13956,7 +14584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -14017,7 +14645,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -14060,7 +14688,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -14101,7 +14729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -14115,7 +14743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -14124,7 +14752,7 @@
       </c>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -14142,7 +14770,7 @@
       <c r="K10" s="77"/>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -14151,7 +14779,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -14160,7 +14788,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -14178,19 +14806,19 @@
       <c r="K13" s="77"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -14202,13 +14830,13 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -14220,14 +14848,14 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -14239,13 +14867,13 @@
       <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -14257,7 +14885,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -14297,14 +14925,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="64" customWidth="1"/>
@@ -14319,7 +14947,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -14340,7 +14968,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -14359,7 +14987,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -14388,7 +15016,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -14447,7 +15075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -14508,7 +15136,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -14524,7 +15152,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -14547,7 +15175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -14561,7 +15189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -14570,7 +15198,7 @@
       </c>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -14588,7 +15216,7 @@
       <c r="K10" s="77"/>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -14597,7 +15225,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -14606,7 +15234,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -14624,19 +15252,19 @@
       <c r="K13" s="77"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -14648,13 +15276,13 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -14666,14 +15294,14 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -14685,13 +15313,13 @@
       <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -14703,7 +15331,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -14743,14 +15371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
@@ -14766,7 +15394,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -14787,7 +15415,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -14806,7 +15434,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -14835,7 +15463,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -14894,7 +15522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -14955,7 +15583,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -15015,7 +15643,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -15073,7 +15701,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -15114,7 +15742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -15150,7 +15778,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -15186,7 +15814,7 @@
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -15222,7 +15850,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -15258,7 +15886,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -15294,19 +15922,19 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -15318,13 +15946,13 @@
       <c r="K16" s="15"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="12"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -15336,14 +15964,14 @@
       <c r="K19" s="15"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="9"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="12"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -15355,13 +15983,13 @@
       <c r="K22" s="15"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="12"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -15373,7 +16001,7 @@
       <c r="K25" s="15"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -15413,14 +16041,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
@@ -15436,7 +16064,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15457,7 +16085,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -15476,7 +16104,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -15505,7 +16133,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -15564,7 +16192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -15625,7 +16253,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -15685,7 +16313,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -15743,7 +16371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -15784,7 +16412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -15820,7 +16448,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -15856,7 +16484,7 @@
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -15892,7 +16520,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -15928,7 +16556,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -15964,19 +16592,19 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -15988,13 +16616,13 @@
       <c r="K16" s="15"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="12"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -16006,14 +16634,14 @@
       <c r="K19" s="15"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="9"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="12"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -16025,13 +16653,13 @@
       <c r="K22" s="15"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="12"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -16043,7 +16671,7 @@
       <c r="K25" s="15"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -16083,14 +16711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -16106,7 +16734,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -16127,7 +16755,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -16146,7 +16774,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -16175,7 +16803,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -16234,7 +16862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -16295,7 +16923,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -16355,7 +16983,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -16413,7 +17041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -16454,7 +17082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -16490,7 +17118,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -16526,7 +17154,7 @@
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -16562,7 +17190,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -16598,7 +17226,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -16634,19 +17262,19 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -16658,13 +17286,13 @@
       <c r="K16" s="15"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="12"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -16676,14 +17304,14 @@
       <c r="K19" s="15"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="9"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="12"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -16695,13 +17323,13 @@
       <c r="K22" s="15"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="12"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -16713,7 +17341,7 @@
       <c r="K25" s="15"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -16753,14 +17381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -16776,7 +17404,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -16797,7 +17425,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -16816,7 +17444,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -16845,7 +17473,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -16904,7 +17532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -16965,7 +17593,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -17025,7 +17653,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -17066,7 +17694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -17107,7 +17735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -17143,7 +17771,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -17179,7 +17807,7 @@
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -17215,7 +17843,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -17251,7 +17879,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -17287,19 +17915,19 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -17311,13 +17939,13 @@
       <c r="K16" s="15"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="12"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -17329,14 +17957,14 @@
       <c r="K19" s="15"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="9"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="12"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -17348,13 +17976,13 @@
       <c r="K22" s="15"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="12"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -17366,7 +17994,7 @@
       <c r="K25" s="15"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -17406,14 +18034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="64" customWidth="1"/>
@@ -17428,7 +18056,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -17449,7 +18077,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -17468,7 +18096,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -17497,7 +18125,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -17556,7 +18184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -17600,7 +18228,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -17643,7 +18271,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -17684,7 +18312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -17698,7 +18326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -17707,7 +18335,7 @@
       </c>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -17725,7 +18353,7 @@
       <c r="K10" s="77"/>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -17734,7 +18362,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -17743,7 +18371,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -17761,19 +18389,19 @@
       <c r="K13" s="77"/>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -17785,14 +18413,14 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
       <c r="N18" s="62"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -17804,7 +18432,7 @@
       <c r="K19" s="77"/>
       <c r="N19" s="62"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="31"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -17815,17 +18443,17 @@
       <c r="J20" s="32"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="K21" s="77"/>
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L24" s="73"/>
       <c r="N24" s="62"/>
     </row>
@@ -17851,14 +18479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="64" customWidth="1"/>
@@ -17873,7 +18501,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -17894,7 +18522,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -17913,7 +18541,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -17942,7 +18570,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:19" ht="38.25">
+    <row r="4" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -18001,7 +18629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -18063,7 +18691,7 @@
         <v>-24.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -18124,7 +18752,7 @@
         <v>-24.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -18165,7 +18793,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -18207,7 +18835,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -18244,7 +18872,7 @@
       </c>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -18280,7 +18908,7 @@
       </c>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -18317,7 +18945,7 @@
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -18354,7 +18982,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1">
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -18390,19 +19018,19 @@
       </c>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -18414,13 +19042,13 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -18432,14 +19060,14 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -18451,13 +19079,13 @@
       <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -18469,7 +19097,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -18509,14 +19137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.85546875" style="64" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="64" customWidth="1"/>
@@ -18531,7 +19159,7 @@
     <col min="20" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="26" customFormat="1" ht="15">
+    <row r="1" spans="1:20" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -18552,7 +19180,7 @@
       <c r="P1" s="80"/>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:20" s="27" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:20" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -18571,7 +19199,7 @@
       <c r="P2" s="81"/>
       <c r="Q2" s="81"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>17</v>
       </c>
@@ -18600,7 +19228,7 @@
       </c>
       <c r="S3" s="89"/>
     </row>
-    <row r="4" spans="1:20" ht="38.25">
+    <row r="4" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
@@ -18660,7 +19288,7 @@
       </c>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -18724,7 +19352,7 @@
       </c>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>84</v>
       </c>
@@ -18787,7 +19415,7 @@
       </c>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
@@ -18829,7 +19457,7 @@
       </c>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -18872,7 +19500,7 @@
       </c>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -18912,7 +19540,7 @@
       <c r="S9" s="30"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
@@ -18950,7 +19578,7 @@
       <c r="R10" s="78"/>
       <c r="S10" s="78"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>5</v>
       </c>
@@ -18988,7 +19616,7 @@
       <c r="R11" s="78"/>
       <c r="S11" s="78"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
@@ -19024,7 +19652,7 @@
       </c>
       <c r="L12" s="71"/>
     </row>
-    <row r="13" spans="1:20" ht="13.5" thickBot="1">
+    <row r="13" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
@@ -19060,19 +19688,19 @@
       </c>
       <c r="L13" s="71"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="91"/>
       <c r="L14" s="71"/>
     </row>
-    <row r="15" spans="1:20" ht="12.75" customHeight="1">
+    <row r="15" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="93"/>
       <c r="L15" s="71"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -19084,13 +19712,13 @@
       <c r="K16" s="77"/>
       <c r="L16" s="71"/>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L18" s="71"/>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
@@ -19102,14 +19730,14 @@
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L20" s="71"/>
       <c r="N20" s="62"/>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N21" s="62"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70"/>
@@ -19121,13 +19749,13 @@
       <c r="K22" s="77"/>
       <c r="N22" s="62"/>
     </row>
-    <row r="23" spans="3:14">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N23" s="62"/>
     </row>
-    <row r="24" spans="3:14">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="N24" s="62"/>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
@@ -19139,7 +19767,7 @@
       <c r="K25" s="77"/>
       <c r="N25" s="62"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
